--- a/Parameters-Estimation/Ck_Parameters_Estimation/0-Dataset/training_test_2016_2019/Ck-Test-Dataset.xlsx
+++ b/Parameters-Estimation/Ck_Parameters_Estimation/0-Dataset/training_test_2016_2019/Ck-Test-Dataset.xlsx
@@ -13,43 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Qriver</t>
-  </si>
-  <si>
-    <t>Qtide</t>
-  </si>
-  <si>
-    <t>Socean</t>
-  </si>
-  <si>
-    <t>CkObs</t>
-  </si>
-  <si>
-    <t>CkOldModel</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Qriver</t>
-  </si>
-  <si>
-    <t>Qtide</t>
-  </si>
-  <si>
-    <t>Socean</t>
-  </si>
-  <si>
-    <t>CkObs</t>
-  </si>
-  <si>
-    <t>CkOldModel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -116,7 +80,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="true"/>
-    <col min="2" max="2" width="6.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
     <col min="3" max="3" width="6.140625" customWidth="true"/>
     <col min="4" max="4" width="7.42578125" customWidth="true"/>
     <col min="5" max="5" width="8.7109375" customWidth="true"/>
@@ -125,22 +89,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -148,19 +112,19 @@
         <v>2016</v>
       </c>
       <c r="B2" s="0">
-        <v>101.76000000000001</v>
+        <v>93.25</v>
       </c>
       <c r="C2" s="0">
-        <v>23.280000000000001</v>
+        <v>8.5999999999999996</v>
       </c>
       <c r="D2" s="0">
-        <v>31.66</v>
+        <v>30.800000000000001</v>
       </c>
       <c r="E2" s="0">
-        <v>117.32380000000001</v>
+        <v>252.25309999999999</v>
       </c>
       <c r="F2" s="0">
-        <v>113.59999999999999</v>
+        <v>221.59999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -168,19 +132,19 @@
         <v>2016</v>
       </c>
       <c r="B3" s="0">
-        <v>158.33000000000001</v>
+        <v>112.48999999999999</v>
       </c>
       <c r="C3" s="0">
-        <v>17.059999999999999</v>
+        <v>25.530000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>33.189999999999998</v>
+        <v>31.260000000000002</v>
       </c>
       <c r="E3" s="0">
-        <v>310.37459999999999</v>
+        <v>127.01309999999999</v>
       </c>
       <c r="F3" s="0">
-        <v>4.5999999999999996</v>
+        <v>94.599999999999994</v>
       </c>
     </row>
     <row r="4">
@@ -188,19 +152,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="0">
-        <v>134.90000000000001</v>
+        <v>92.629999999999995</v>
       </c>
       <c r="C4" s="0">
-        <v>12.869999999999999</v>
+        <v>29.289999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>33.380000000000003</v>
+        <v>31.690000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>277.67399999999998</v>
+        <v>126.0457</v>
       </c>
       <c r="F4" s="0">
-        <v>193.80000000000001</v>
+        <v>70.200000000000003</v>
       </c>
     </row>
     <row r="5">
@@ -208,19 +172,19 @@
         <v>2016</v>
       </c>
       <c r="B5" s="0">
-        <v>105.22</v>
+        <v>133.75</v>
       </c>
       <c r="C5" s="0">
-        <v>15.15</v>
+        <v>29.079999999999998</v>
       </c>
       <c r="D5" s="0">
-        <v>33.020000000000003</v>
+        <v>31.850000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>203.60659999999999</v>
+        <v>154.74809999999999</v>
       </c>
       <c r="F5" s="0">
-        <v>182.19999999999999</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="6">
@@ -228,19 +192,19 @@
         <v>2016</v>
       </c>
       <c r="B6" s="0">
-        <v>90.090000000000003</v>
+        <v>179.44</v>
       </c>
       <c r="C6" s="0">
-        <v>20.649999999999999</v>
+        <v>13.18</v>
       </c>
       <c r="D6" s="0">
-        <v>32.049999999999997</v>
+        <v>33.060000000000002</v>
       </c>
       <c r="E6" s="0">
-        <v>144.09460000000001</v>
+        <v>285.18150000000003</v>
       </c>
       <c r="F6" s="0">
-        <v>137.69999999999999</v>
+        <v>6.7999999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -248,19 +212,19 @@
         <v>2016</v>
       </c>
       <c r="B7" s="0">
-        <v>92.090000000000003</v>
+        <v>149.41999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>25.59</v>
+        <v>12.69</v>
       </c>
       <c r="D7" s="0">
-        <v>31.850000000000001</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="E7" s="0">
-        <v>132.2157</v>
+        <v>250.4152</v>
       </c>
       <c r="F7" s="0">
-        <v>96.5</v>
+        <v>192.40000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -268,19 +232,19 @@
         <v>2016</v>
       </c>
       <c r="B8" s="0">
-        <v>92.629999999999995</v>
+        <v>124.84</v>
       </c>
       <c r="C8" s="0">
-        <v>29.289999999999999</v>
+        <v>18.34</v>
       </c>
       <c r="D8" s="0">
-        <v>31.690000000000001</v>
+        <v>31.469999999999999</v>
       </c>
       <c r="E8" s="0">
-        <v>126.0457</v>
+        <v>150.14699999999999</v>
       </c>
       <c r="F8" s="0">
-        <v>70.200000000000003</v>
+        <v>151.90000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -288,19 +252,19 @@
         <v>2016</v>
       </c>
       <c r="B9" s="0">
-        <v>211.78999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="C9" s="0">
-        <v>23.370000000000001</v>
+        <v>13.99</v>
       </c>
       <c r="D9" s="0">
-        <v>33.100000000000001</v>
+        <v>31.469999999999999</v>
       </c>
       <c r="E9" s="0">
-        <v>243.30109999999999</v>
+        <v>228.2124</v>
       </c>
       <c r="F9" s="0">
-        <v>3</v>
+        <v>186.19999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -308,19 +272,19 @@
         <v>2016</v>
       </c>
       <c r="B10" s="0">
-        <v>192.22</v>
+        <v>159.99000000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>24.07</v>
+        <v>25.440000000000001</v>
       </c>
       <c r="D10" s="0">
-        <v>32.560000000000002</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="E10" s="0">
-        <v>142.79990000000001</v>
+        <v>103.45950000000001</v>
       </c>
       <c r="F10" s="0">
-        <v>2.7000000000000002</v>
+        <v>2.1000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -328,19 +292,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="0">
-        <v>141.55000000000001</v>
+        <v>151.05000000000001</v>
       </c>
       <c r="C11" s="0">
-        <v>27.609999999999999</v>
+        <v>19.550000000000001</v>
       </c>
       <c r="D11" s="0">
-        <v>32.119999999999997</v>
+        <v>31</v>
       </c>
       <c r="E11" s="0">
-        <v>116.4691</v>
+        <v>184.7868</v>
       </c>
       <c r="F11" s="0">
-        <v>78.099999999999994</v>
+        <v>138.09999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -348,19 +312,19 @@
         <v>2016</v>
       </c>
       <c r="B12" s="0">
-        <v>126.06999999999999</v>
+        <v>144.46000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>29.23</v>
+        <v>11.23</v>
       </c>
       <c r="D12" s="0">
-        <v>31.710000000000001</v>
+        <v>30.699999999999999</v>
       </c>
       <c r="E12" s="0">
-        <v>107.4449</v>
+        <v>328.5686</v>
       </c>
       <c r="F12" s="0">
-        <v>68.099999999999994</v>
+        <v>198.69999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -368,19 +332,19 @@
         <v>2016</v>
       </c>
       <c r="B13" s="0">
-        <v>122.5</v>
+        <v>139.59</v>
       </c>
       <c r="C13" s="0">
-        <v>13.99</v>
+        <v>6</v>
       </c>
       <c r="D13" s="0">
-        <v>31.469999999999999</v>
+        <v>30.82</v>
       </c>
       <c r="E13" s="0">
-        <v>228.2124</v>
+        <v>340.6078</v>
       </c>
       <c r="F13" s="0">
-        <v>186.19999999999999</v>
+        <v>216.59999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -388,19 +352,19 @@
         <v>2016</v>
       </c>
       <c r="B14" s="0">
-        <v>155.50999999999999</v>
+        <v>136.97</v>
       </c>
       <c r="C14" s="0">
-        <v>22.670000000000002</v>
+        <v>27.510000000000002</v>
       </c>
       <c r="D14" s="0">
-        <v>31.600000000000001</v>
+        <v>30.010000000000002</v>
       </c>
       <c r="E14" s="0">
-        <v>161.7861</v>
+        <v>101.69880000000001</v>
       </c>
       <c r="F14" s="0">
-        <v>2.7000000000000002</v>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="15">
@@ -408,19 +372,19 @@
         <v>2016</v>
       </c>
       <c r="B15" s="0">
-        <v>136.81</v>
+        <v>138.31999999999999</v>
       </c>
       <c r="C15" s="0">
-        <v>4.3899999999999997</v>
+        <v>29.050000000000001</v>
       </c>
       <c r="D15" s="0">
-        <v>31.050000000000001</v>
+        <v>30.850000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>595.6694</v>
+        <v>74.298410000000004</v>
       </c>
       <c r="F15" s="0">
-        <v>216</v>
+        <v>68.799999999999997</v>
       </c>
     </row>
     <row r="16">
@@ -428,19 +392,19 @@
         <v>2016</v>
       </c>
       <c r="B16" s="0">
-        <v>136.88999999999999</v>
+        <v>236.16999999999999</v>
       </c>
       <c r="C16" s="0">
-        <v>8.7599999999999998</v>
+        <v>13.710000000000001</v>
       </c>
       <c r="D16" s="0">
-        <v>31.09</v>
+        <v>29.399999999999999</v>
       </c>
       <c r="E16" s="0">
-        <v>414.09269999999998</v>
+        <v>33.57311</v>
       </c>
       <c r="F16" s="0">
-        <v>210.59999999999999</v>
+        <v>7.2999999999999998</v>
       </c>
     </row>
     <row r="17">
@@ -448,19 +412,19 @@
         <v>2016</v>
       </c>
       <c r="B17" s="0">
-        <v>136.63</v>
+        <v>228.83000000000001</v>
       </c>
       <c r="C17" s="0">
-        <v>11.07</v>
+        <v>12.380000000000001</v>
       </c>
       <c r="D17" s="0">
-        <v>30.960000000000001</v>
+        <v>30.010000000000002</v>
       </c>
       <c r="E17" s="0">
-        <v>364.91269999999997</v>
+        <v>22.58503</v>
       </c>
       <c r="F17" s="0">
-        <v>200.09999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -468,19 +432,19 @@
         <v>2016</v>
       </c>
       <c r="B18" s="0">
-        <v>133.93000000000001</v>
+        <v>237.11000000000001</v>
       </c>
       <c r="C18" s="0">
-        <v>19.280000000000001</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="D18" s="0">
-        <v>30.260000000000002</v>
+        <v>30.18</v>
       </c>
       <c r="E18" s="0">
-        <v>122.64870000000001</v>
+        <v>78.916150000000002</v>
       </c>
       <c r="F18" s="0">
-        <v>141.40000000000001</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="19">
@@ -488,19 +452,19 @@
         <v>2016</v>
       </c>
       <c r="B19" s="0">
-        <v>142.13</v>
+        <v>253.28999999999999</v>
       </c>
       <c r="C19" s="0">
-        <v>26.5</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="D19" s="0">
-        <v>29.91</v>
+        <v>30.510000000000002</v>
       </c>
       <c r="E19" s="0">
-        <v>96.658540000000002</v>
+        <v>33.266849999999998</v>
       </c>
       <c r="F19" s="0">
-        <v>84.5</v>
+        <v>5.4000000000000004</v>
       </c>
     </row>
     <row r="20">
@@ -508,19 +472,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="0">
-        <v>128.28</v>
+        <v>243.99000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>29.68</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="D20" s="0">
-        <v>30.390000000000001</v>
+        <v>30.620000000000001</v>
       </c>
       <c r="E20" s="0">
-        <v>87.188389999999998</v>
+        <v>33.689190000000004</v>
       </c>
       <c r="F20" s="0">
-        <v>65.400000000000006</v>
+        <v>5.2999999999999998</v>
       </c>
     </row>
     <row r="21">
@@ -528,19 +492,19 @@
         <v>2016</v>
       </c>
       <c r="B21" s="0">
-        <v>108.04000000000001</v>
+        <v>184.37</v>
       </c>
       <c r="C21" s="0">
-        <v>13.25</v>
+        <v>11.890000000000001</v>
       </c>
       <c r="D21" s="0">
-        <v>29.609999999999999</v>
+        <v>31.48</v>
       </c>
       <c r="E21" s="0">
-        <v>164.09219999999999</v>
+        <v>189.30690000000001</v>
       </c>
       <c r="F21" s="0">
-        <v>191.40000000000001</v>
+        <v>7.5999999999999996</v>
       </c>
     </row>
     <row r="22">
@@ -548,19 +512,19 @@
         <v>2016</v>
       </c>
       <c r="B22" s="0">
-        <v>233.44</v>
+        <v>115.23</v>
       </c>
       <c r="C22" s="0">
-        <v>11.199999999999999</v>
+        <v>24.030000000000001</v>
       </c>
       <c r="D22" s="0">
-        <v>29.940000000000001</v>
+        <v>30.949999999999999</v>
       </c>
       <c r="E22" s="0">
-        <v>57.021410000000003</v>
+        <v>174.4606</v>
       </c>
       <c r="F22" s="0">
-        <v>8.9000000000000004</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="23">
@@ -568,19 +532,19 @@
         <v>2016</v>
       </c>
       <c r="B23" s="0">
-        <v>229.13999999999999</v>
+        <v>112.01000000000001</v>
       </c>
       <c r="C23" s="0">
-        <v>14.550000000000001</v>
+        <v>23.66</v>
       </c>
       <c r="D23" s="0">
-        <v>29.600000000000001</v>
+        <v>30.870000000000001</v>
       </c>
       <c r="E23" s="0">
-        <v>28.92052</v>
+        <v>143.21109999999999</v>
       </c>
       <c r="F23" s="0">
-        <v>6.7000000000000002</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="24">
@@ -588,19 +552,19 @@
         <v>2016</v>
       </c>
       <c r="B24" s="0">
-        <v>78.5</v>
+        <v>64.510000000000005</v>
       </c>
       <c r="C24" s="0">
-        <v>11.720000000000001</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="D24" s="0">
-        <v>30.649999999999999</v>
+        <v>31.879999999999999</v>
       </c>
       <c r="E24" s="0">
-        <v>212.7047</v>
+        <v>137.02510000000001</v>
       </c>
       <c r="F24" s="0">
-        <v>212.59999999999999</v>
+        <v>151.09999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -608,19 +572,19 @@
         <v>2016</v>
       </c>
       <c r="B25" s="0">
-        <v>103.48</v>
+        <v>84.019999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>17.75</v>
+        <v>11.73</v>
       </c>
       <c r="D25" s="0">
-        <v>34.990000000000002</v>
+        <v>32.350000000000001</v>
       </c>
       <c r="E25" s="0">
-        <v>197.2808</v>
+        <v>197.71680000000001</v>
       </c>
       <c r="F25" s="0">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
@@ -628,19 +592,19 @@
         <v>2016</v>
       </c>
       <c r="B26" s="0">
-        <v>90.420000000000002</v>
+        <v>122.73</v>
       </c>
       <c r="C26" s="0">
-        <v>23.460000000000001</v>
+        <v>29.379999999999999</v>
       </c>
       <c r="D26" s="0">
-        <v>33.399999999999999</v>
+        <v>32.539999999999999</v>
       </c>
       <c r="E26" s="0">
-        <v>155.887</v>
+        <v>117.45050000000001</v>
       </c>
       <c r="F26" s="0">
-        <v>115.7</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="27">
@@ -648,19 +612,19 @@
         <v>2016</v>
       </c>
       <c r="B27" s="0">
-        <v>69.920000000000002</v>
+        <v>111.67</v>
       </c>
       <c r="C27" s="0">
-        <v>22.329999999999998</v>
+        <v>6.9000000000000004</v>
       </c>
       <c r="D27" s="0">
-        <v>32.200000000000003</v>
+        <v>32.490000000000002</v>
       </c>
       <c r="E27" s="0">
-        <v>152.66739999999999</v>
+        <v>200.71889999999999</v>
       </c>
       <c r="F27" s="0">
-        <v>127.8</v>
+        <v>226.69999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -668,19 +632,19 @@
         <v>2016</v>
       </c>
       <c r="B28" s="0">
-        <v>64.510000000000005</v>
+        <v>104.45</v>
       </c>
       <c r="C28" s="0">
-        <v>19.829999999999998</v>
+        <v>5.9199999999999999</v>
       </c>
       <c r="D28" s="0">
-        <v>31.879999999999999</v>
+        <v>33.350000000000001</v>
       </c>
       <c r="E28" s="0">
-        <v>137.02510000000001</v>
+        <v>143.74709999999999</v>
       </c>
       <c r="F28" s="0">
-        <v>151.09999999999999</v>
+        <v>230.30000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -688,19 +652,19 @@
         <v>2016</v>
       </c>
       <c r="B29" s="0">
-        <v>137.87</v>
+        <v>112.02</v>
       </c>
       <c r="C29" s="0">
-        <v>12.65</v>
+        <v>9.8900000000000006</v>
       </c>
       <c r="D29" s="0">
-        <v>33.229999999999997</v>
+        <v>32.960000000000001</v>
       </c>
       <c r="E29" s="0">
-        <v>176.36080000000001</v>
+        <v>206.94999999999999</v>
       </c>
       <c r="F29" s="0">
-        <v>196.80000000000001</v>
+        <v>217.19999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -708,19 +672,19 @@
         <v>2016</v>
       </c>
       <c r="B30" s="0">
-        <v>106.33</v>
+        <v>116.59999999999999</v>
       </c>
       <c r="C30" s="0">
-        <v>22.010000000000002</v>
+        <v>13.56</v>
       </c>
       <c r="D30" s="0">
-        <v>32.270000000000003</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="E30" s="0">
-        <v>79.438839999999999</v>
+        <v>175.6344</v>
       </c>
       <c r="F30" s="0">
-        <v>125.09999999999999</v>
+        <v>193.69999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -728,19 +692,19 @@
         <v>2016</v>
       </c>
       <c r="B31" s="0">
-        <v>95.680000000000007</v>
+        <v>103.94</v>
       </c>
       <c r="C31" s="0">
-        <v>25.68</v>
+        <v>22.989999999999998</v>
       </c>
       <c r="D31" s="0">
-        <v>31.870000000000001</v>
+        <v>32.189999999999998</v>
       </c>
       <c r="E31" s="0">
-        <v>94.995320000000007</v>
+        <v>87.218410000000006</v>
       </c>
       <c r="F31" s="0">
-        <v>96.299999999999997</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -748,19 +712,19 @@
         <v>2016</v>
       </c>
       <c r="B32" s="0">
-        <v>97.230000000000004</v>
+        <v>98.950000000000003</v>
       </c>
       <c r="C32" s="0">
-        <v>22.5</v>
+        <v>24.899999999999999</v>
       </c>
       <c r="D32" s="0">
-        <v>32.090000000000003</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E32" s="0">
-        <v>91.174449999999993</v>
+        <v>120.4644</v>
       </c>
       <c r="F32" s="0">
-        <v>121.90000000000001</v>
+        <v>102.09999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -768,19 +732,19 @@
         <v>2016</v>
       </c>
       <c r="B33" s="0">
-        <v>92.060000000000002</v>
+        <v>98.900000000000006</v>
       </c>
       <c r="C33" s="0">
-        <v>11.380000000000001</v>
+        <v>19.620000000000001</v>
       </c>
       <c r="D33" s="0">
-        <v>33.020000000000003</v>
+        <v>33.530000000000001</v>
       </c>
       <c r="E33" s="0">
-        <v>225.32839999999999</v>
+        <v>88.859650000000002</v>
       </c>
       <c r="F33" s="0">
-        <v>213.80000000000001</v>
+        <v>147.40000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -788,19 +752,19 @@
         <v>2016</v>
       </c>
       <c r="B34" s="0">
-        <v>90.730000000000004</v>
+        <v>96.25</v>
       </c>
       <c r="C34" s="0">
-        <v>24.609999999999999</v>
+        <v>28.109999999999999</v>
       </c>
       <c r="D34" s="0">
-        <v>32.149999999999999</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="E34" s="0">
-        <v>139.70590000000001</v>
+        <v>88.730620000000002</v>
       </c>
       <c r="F34" s="0">
-        <v>105.8</v>
+        <v>79.200000000000003</v>
       </c>
     </row>
     <row r="35">
@@ -808,19 +772,19 @@
         <v>2016</v>
       </c>
       <c r="B35" s="0">
-        <v>92.510000000000005</v>
+        <v>104.28</v>
       </c>
       <c r="C35" s="0">
-        <v>24.899999999999999</v>
+        <v>27.829999999999998</v>
       </c>
       <c r="D35" s="0">
-        <v>32.390000000000001</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="E35" s="0">
-        <v>99.20805</v>
+        <v>116.583</v>
       </c>
       <c r="F35" s="0">
-        <v>103.40000000000001</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="36">
@@ -828,19 +792,19 @@
         <v>2016</v>
       </c>
       <c r="B36" s="0">
-        <v>108.22</v>
+        <v>113.16</v>
       </c>
       <c r="C36" s="0">
-        <v>8.6500000000000004</v>
+        <v>18.41</v>
       </c>
       <c r="D36" s="0">
-        <v>34.450000000000003</v>
+        <v>31.710000000000001</v>
       </c>
       <c r="E36" s="0">
-        <v>45.094850000000001</v>
+        <v>120.9859</v>
       </c>
       <c r="F36" s="0">
-        <v>224.30000000000001</v>
+        <v>155.19999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -848,19 +812,19 @@
         <v>2016</v>
       </c>
       <c r="B37" s="0">
-        <v>100.3</v>
+        <v>102.95999999999999</v>
       </c>
       <c r="C37" s="0">
-        <v>28.68</v>
+        <v>4.3300000000000001</v>
       </c>
       <c r="D37" s="0">
-        <v>31.850000000000001</v>
+        <v>34.280000000000001</v>
       </c>
       <c r="E37" s="0">
-        <v>115.9533</v>
+        <v>448.36239999999998</v>
       </c>
       <c r="F37" s="0">
-        <v>74.400000000000006</v>
+        <v>230.09999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -868,19 +832,19 @@
         <v>2016</v>
       </c>
       <c r="B38" s="0">
-        <v>103.86</v>
+        <v>113.06</v>
       </c>
       <c r="C38" s="0">
-        <v>30.18</v>
+        <v>27.579999999999998</v>
       </c>
       <c r="D38" s="0">
-        <v>31.93</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E38" s="0">
-        <v>109.7076</v>
+        <v>119.9068</v>
       </c>
       <c r="F38" s="0">
-        <v>64.5</v>
+        <v>80.700000000000003</v>
       </c>
     </row>
     <row r="39">
@@ -888,19 +852,19 @@
         <v>2016</v>
       </c>
       <c r="B39" s="0">
-        <v>113.06</v>
+        <v>125.38</v>
       </c>
       <c r="C39" s="0">
-        <v>27.579999999999998</v>
+        <v>8.1899999999999995</v>
       </c>
       <c r="D39" s="0">
-        <v>32.299999999999997</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="E39" s="0">
-        <v>119.9068</v>
+        <v>231.17830000000001</v>
       </c>
       <c r="F39" s="0">
-        <v>80.700000000000003</v>
+        <v>220.09999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -908,19 +872,19 @@
         <v>2016</v>
       </c>
       <c r="B40" s="0">
-        <v>132.11000000000001</v>
+        <v>114.77</v>
       </c>
       <c r="C40" s="0">
-        <v>30.190000000000001</v>
+        <v>22.699999999999999</v>
       </c>
       <c r="D40" s="0">
-        <v>32.950000000000003</v>
+        <v>30.75</v>
       </c>
       <c r="E40" s="0">
-        <v>139.81790000000001</v>
+        <v>94.448759999999993</v>
       </c>
       <c r="F40" s="0">
-        <v>62.700000000000003</v>
+        <v>117.90000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -928,19 +892,19 @@
         <v>2016</v>
       </c>
       <c r="B41" s="0">
-        <v>145.31999999999999</v>
+        <v>112.34</v>
       </c>
       <c r="C41" s="0">
-        <v>22.289999999999999</v>
+        <v>26.879999999999999</v>
       </c>
       <c r="D41" s="0">
-        <v>32.700000000000003</v>
+        <v>30.620000000000001</v>
       </c>
       <c r="E41" s="0">
-        <v>144.5343</v>
+        <v>51.162970000000001</v>
       </c>
       <c r="F41" s="0">
-        <v>118.5</v>
+        <v>85.700000000000003</v>
       </c>
     </row>
     <row r="42">
@@ -948,19 +912,19 @@
         <v>2016</v>
       </c>
       <c r="B42" s="0">
-        <v>137.78</v>
+        <v>98.680000000000007</v>
       </c>
       <c r="C42" s="0">
-        <v>20.359999999999999</v>
+        <v>4.2599999999999998</v>
       </c>
       <c r="D42" s="0">
-        <v>32.109999999999999</v>
+        <v>30.93</v>
       </c>
       <c r="E42" s="0">
-        <v>161.47219999999999</v>
+        <v>395.40780000000001</v>
       </c>
       <c r="F42" s="0">
-        <v>134.90000000000001</v>
+        <v>228.40000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -968,19 +932,19 @@
         <v>2016</v>
       </c>
       <c r="B43" s="0">
-        <v>127.56999999999999</v>
+        <v>144.68000000000001</v>
       </c>
       <c r="C43" s="0">
-        <v>12.66</v>
+        <v>24.43</v>
       </c>
       <c r="D43" s="0">
-        <v>32</v>
+        <v>31.149999999999999</v>
       </c>
       <c r="E43" s="0">
-        <v>120.1918</v>
+        <v>115.8339</v>
       </c>
       <c r="F43" s="0">
-        <v>196.59999999999999</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="44">
@@ -988,19 +952,19 @@
         <v>2016</v>
       </c>
       <c r="B44" s="0">
-        <v>114.77</v>
+        <v>126.98999999999999</v>
       </c>
       <c r="C44" s="0">
-        <v>22.699999999999999</v>
+        <v>12.949999999999999</v>
       </c>
       <c r="D44" s="0">
-        <v>30.75</v>
+        <v>30.559999999999999</v>
       </c>
       <c r="E44" s="0">
-        <v>94.448759999999993</v>
+        <v>161.47059999999999</v>
       </c>
       <c r="F44" s="0">
-        <v>117.90000000000001</v>
+        <v>193.59999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1008,19 +972,19 @@
         <v>2016</v>
       </c>
       <c r="B45" s="0">
-        <v>112.34</v>
+        <v>112.7</v>
       </c>
       <c r="C45" s="0">
-        <v>26.879999999999999</v>
+        <v>11.93</v>
       </c>
       <c r="D45" s="0">
-        <v>30.620000000000001</v>
+        <v>30.190000000000001</v>
       </c>
       <c r="E45" s="0">
-        <v>51.162970000000001</v>
+        <v>205.69059999999999</v>
       </c>
       <c r="F45" s="0">
-        <v>85.700000000000003</v>
+        <v>203.09999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1028,19 +992,19 @@
         <v>2016</v>
       </c>
       <c r="B46" s="0">
-        <v>97.319999999999993</v>
+        <v>108.97</v>
       </c>
       <c r="C46" s="0">
-        <v>17.710000000000001</v>
+        <v>23.449999999999999</v>
       </c>
       <c r="D46" s="0">
-        <v>34.07</v>
+        <v>31.449999999999999</v>
       </c>
       <c r="E46" s="0">
-        <v>92.110349999999997</v>
+        <v>85.248609999999999</v>
       </c>
       <c r="F46" s="0">
-        <v>163.90000000000001</v>
+        <v>112.40000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1048,19 +1012,19 @@
         <v>2016</v>
       </c>
       <c r="B47" s="0">
-        <v>117.26000000000001</v>
+        <v>117.06</v>
       </c>
       <c r="C47" s="0">
-        <v>9.1699999999999999</v>
+        <v>23.809999999999999</v>
       </c>
       <c r="D47" s="0">
-        <v>30.809999999999999</v>
+        <v>30.629999999999999</v>
       </c>
       <c r="E47" s="0">
-        <v>217.22800000000001</v>
+        <v>106.7942</v>
       </c>
       <c r="F47" s="0">
-        <v>217.30000000000001</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="48">
@@ -1068,19 +1032,19 @@
         <v>2016</v>
       </c>
       <c r="B48" s="0">
-        <v>115.48999999999999</v>
+        <v>105.63</v>
       </c>
       <c r="C48" s="0">
-        <v>26.739999999999998</v>
+        <v>14.84</v>
       </c>
       <c r="D48" s="0">
-        <v>31.399999999999999</v>
+        <v>30.940000000000001</v>
       </c>
       <c r="E48" s="0">
-        <v>87.111540000000005</v>
+        <v>120.72450000000001</v>
       </c>
       <c r="F48" s="0">
-        <v>86.5</v>
+        <v>182.90000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1088,19 +1052,19 @@
         <v>2016</v>
       </c>
       <c r="B49" s="0">
-        <v>108.08</v>
+        <v>103.66</v>
       </c>
       <c r="C49" s="0">
-        <v>9.6099999999999994</v>
+        <v>11.68</v>
       </c>
       <c r="D49" s="0">
-        <v>30.620000000000001</v>
+        <v>31.120000000000001</v>
       </c>
       <c r="E49" s="0">
-        <v>186.2577</v>
+        <v>170.61330000000001</v>
       </c>
       <c r="F49" s="0">
-        <v>213.90000000000001</v>
+        <v>205.40000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1108,19 +1072,19 @@
         <v>2016</v>
       </c>
       <c r="B50" s="0">
-        <v>134.75</v>
+        <v>127.03</v>
       </c>
       <c r="C50" s="0">
-        <v>25.18</v>
+        <v>26.170000000000002</v>
       </c>
       <c r="D50" s="0">
-        <v>31.59</v>
+        <v>32.939999999999998</v>
       </c>
       <c r="E50" s="0">
-        <v>60.685009999999998</v>
+        <v>34.578870000000002</v>
       </c>
       <c r="F50" s="0">
-        <v>96.400000000000006</v>
+        <v>90.400000000000006</v>
       </c>
     </row>
     <row r="51">
@@ -1128,19 +1092,19 @@
         <v>2016</v>
       </c>
       <c r="B51" s="0">
-        <v>125.79000000000001</v>
+        <v>118.95</v>
       </c>
       <c r="C51" s="0">
-        <v>11.460000000000001</v>
+        <v>25.920000000000002</v>
       </c>
       <c r="D51" s="0">
-        <v>30.43</v>
+        <v>32.539999999999999</v>
       </c>
       <c r="E51" s="0">
-        <v>112.673</v>
+        <v>96.004009999999994</v>
       </c>
       <c r="F51" s="0">
-        <v>201.19999999999999</v>
+        <v>92.599999999999994</v>
       </c>
     </row>
     <row r="52">
@@ -1148,19 +1112,19 @@
         <v>2016</v>
       </c>
       <c r="B52" s="0">
-        <v>612.82000000000005</v>
+        <v>107.90000000000001</v>
       </c>
       <c r="C52" s="0">
-        <v>21.129999999999999</v>
+        <v>20.140000000000001</v>
       </c>
       <c r="D52" s="0">
-        <v>32.369999999999997</v>
+        <v>30.969999999999999</v>
       </c>
       <c r="E52" s="0">
-        <v>0</v>
+        <v>137.73320000000001</v>
       </c>
       <c r="F52" s="0">
-        <v>6.2999999999999998</v>
+        <v>139.69999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1168,19 +1132,19 @@
         <v>2016</v>
       </c>
       <c r="B53" s="0">
-        <v>280.12</v>
+        <v>125.39</v>
       </c>
       <c r="C53" s="0">
-        <v>15.44</v>
+        <v>14.359999999999999</v>
       </c>
       <c r="D53" s="0">
-        <v>31.530000000000001</v>
+        <v>29.98</v>
       </c>
       <c r="E53" s="0">
-        <v>0</v>
+        <v>130.19329999999999</v>
       </c>
       <c r="F53" s="0">
-        <v>7</v>
+        <v>181.59999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1188,19 +1152,19 @@
         <v>2016</v>
       </c>
       <c r="B54" s="0">
-        <v>241.78</v>
+        <v>509.52999999999997</v>
       </c>
       <c r="C54" s="0">
-        <v>10.779999999999999</v>
+        <v>24.719999999999999</v>
       </c>
       <c r="D54" s="0">
-        <v>31.219999999999999</v>
+        <v>29.82</v>
       </c>
       <c r="E54" s="0">
         <v>0</v>
       </c>
       <c r="F54" s="0">
-        <v>9.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -1208,19 +1172,19 @@
         <v>2016</v>
       </c>
       <c r="B55" s="0">
-        <v>165.34999999999999</v>
+        <v>466.94999999999999</v>
       </c>
       <c r="C55" s="0">
-        <v>26.449999999999999</v>
+        <v>22.32</v>
       </c>
       <c r="D55" s="0">
-        <v>30.219999999999999</v>
+        <v>31.579999999999998</v>
       </c>
       <c r="E55" s="0">
-        <v>62.100920000000002</v>
+        <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>1.8999999999999999</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="56">
@@ -1228,19 +1192,19 @@
         <v>2016</v>
       </c>
       <c r="B56" s="0">
-        <v>159.41999999999999</v>
+        <v>180.02000000000001</v>
       </c>
       <c r="C56" s="0">
-        <v>26.390000000000001</v>
+        <v>15.640000000000001</v>
       </c>
       <c r="D56" s="0">
-        <v>30.350000000000001</v>
+        <v>30.579999999999998</v>
       </c>
       <c r="E56" s="0">
-        <v>77.659800000000004</v>
+        <v>18.861719999999998</v>
       </c>
       <c r="F56" s="0">
-        <v>1.8999999999999999</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="57">
@@ -1248,19 +1212,19 @@
         <v>2016</v>
       </c>
       <c r="B57" s="0">
-        <v>149.31</v>
+        <v>169.86000000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>26.899999999999999</v>
+        <v>22.91</v>
       </c>
       <c r="D57" s="0">
-        <v>30.460000000000001</v>
+        <v>30.260000000000002</v>
       </c>
       <c r="E57" s="0">
-        <v>92.762039999999999</v>
+        <v>58.37717</v>
       </c>
       <c r="F57" s="0">
-        <v>82</v>
+        <v>2.7999999999999998</v>
       </c>
     </row>
     <row r="58">
@@ -1268,19 +1232,19 @@
         <v>2016</v>
       </c>
       <c r="B58" s="0">
-        <v>146.03</v>
+        <v>165.34999999999999</v>
       </c>
       <c r="C58" s="0">
-        <v>29.030000000000001</v>
+        <v>26.449999999999999</v>
       </c>
       <c r="D58" s="0">
-        <v>30.59</v>
+        <v>30.219999999999999</v>
       </c>
       <c r="E58" s="0">
-        <v>92.696619999999996</v>
+        <v>62.100920000000002</v>
       </c>
       <c r="F58" s="0">
-        <v>68.200000000000003</v>
+        <v>1.8999999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -1288,79 +1252,79 @@
         <v>2016</v>
       </c>
       <c r="B59" s="0">
-        <v>137.90000000000001</v>
+        <v>146.03</v>
       </c>
       <c r="C59" s="0">
-        <v>22.469999999999999</v>
+        <v>29.030000000000001</v>
       </c>
       <c r="D59" s="0">
-        <v>31.41</v>
+        <v>30.59</v>
       </c>
       <c r="E59" s="0">
-        <v>75.529390000000006</v>
+        <v>92.696619999999996</v>
       </c>
       <c r="F59" s="0">
-        <v>116.8</v>
+        <v>68.200000000000003</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B60" s="0">
-        <v>117.23999999999999</v>
+        <v>143.16999999999999</v>
       </c>
       <c r="C60" s="0">
-        <v>12.76</v>
+        <v>19.66</v>
       </c>
       <c r="D60" s="0">
-        <v>35.280000000000001</v>
+        <v>30.960000000000001</v>
       </c>
       <c r="E60" s="0">
-        <v>17.77713</v>
+        <v>79.076890000000006</v>
       </c>
       <c r="F60" s="0">
-        <v>5.7000000000000002</v>
+        <v>139.09999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B61" s="0">
-        <v>108.14</v>
+        <v>138.25999999999999</v>
       </c>
       <c r="C61" s="0">
-        <v>7.6799999999999997</v>
+        <v>12.48</v>
       </c>
       <c r="D61" s="0">
-        <v>34.670000000000002</v>
+        <v>31.100000000000001</v>
       </c>
       <c r="E61" s="0">
-        <v>107.8274</v>
+        <v>76.864469999999997</v>
       </c>
       <c r="F61" s="0">
-        <v>226.09999999999999</v>
+        <v>194.09999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B62" s="0">
-        <v>107.17</v>
+        <v>154.03999999999999</v>
       </c>
       <c r="C62" s="0">
-        <v>11.18</v>
+        <v>22.34</v>
       </c>
       <c r="D62" s="0">
-        <v>33.700000000000003</v>
+        <v>31.460000000000001</v>
       </c>
       <c r="E62" s="0">
-        <v>118.34569999999999</v>
+        <v>100.2243</v>
       </c>
       <c r="F62" s="0">
-        <v>210.40000000000001</v>
+        <v>2.7999999999999998</v>
       </c>
     </row>
     <row r="63">
@@ -1368,19 +1332,19 @@
         <v>2017</v>
       </c>
       <c r="B63" s="0">
-        <v>106.67</v>
+        <v>106.38</v>
       </c>
       <c r="C63" s="0">
-        <v>12.880000000000001</v>
+        <v>26.420000000000002</v>
       </c>
       <c r="D63" s="0">
-        <v>33.210000000000001</v>
+        <v>31.359999999999999</v>
       </c>
       <c r="E63" s="0">
-        <v>144.80080000000001</v>
+        <v>159.90389999999999</v>
       </c>
       <c r="F63" s="0">
-        <v>199.59999999999999</v>
+        <v>89.299999999999997</v>
       </c>
     </row>
     <row r="64">
@@ -1388,19 +1352,19 @@
         <v>2017</v>
       </c>
       <c r="B64" s="0">
-        <v>107.13</v>
+        <v>106.23</v>
       </c>
       <c r="C64" s="0">
-        <v>23.300000000000001</v>
+        <v>25.239999999999998</v>
       </c>
       <c r="D64" s="0">
-        <v>32.759999999999998</v>
+        <v>31.190000000000001</v>
       </c>
       <c r="E64" s="0">
-        <v>118.4693</v>
+        <v>151.74109999999999</v>
       </c>
       <c r="F64" s="0">
-        <v>114.40000000000001</v>
+        <v>98.099999999999994</v>
       </c>
     </row>
     <row r="65">
@@ -1408,19 +1372,19 @@
         <v>2017</v>
       </c>
       <c r="B65" s="0">
-        <v>106.09999999999999</v>
+        <v>107.94</v>
       </c>
       <c r="C65" s="0">
-        <v>26.199999999999999</v>
+        <v>9.0700000000000003</v>
       </c>
       <c r="D65" s="0">
-        <v>31.780000000000001</v>
+        <v>30.390000000000001</v>
       </c>
       <c r="E65" s="0">
-        <v>138.31489999999999</v>
+        <v>235.71170000000001</v>
       </c>
       <c r="F65" s="0">
-        <v>91.5</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="66">
@@ -1428,19 +1392,19 @@
         <v>2017</v>
       </c>
       <c r="B66" s="0">
-        <v>106.23</v>
+        <v>117.98</v>
       </c>
       <c r="C66" s="0">
-        <v>25.239999999999998</v>
+        <v>27.620000000000001</v>
       </c>
       <c r="D66" s="0">
-        <v>31.190000000000001</v>
+        <v>31.23</v>
       </c>
       <c r="E66" s="0">
-        <v>151.74109999999999</v>
+        <v>52.192189999999997</v>
       </c>
       <c r="F66" s="0">
-        <v>98.099999999999994</v>
+        <v>1.3999999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -1448,19 +1412,19 @@
         <v>2017</v>
       </c>
       <c r="B67" s="0">
-        <v>105.73</v>
+        <v>111.09999999999999</v>
       </c>
       <c r="C67" s="0">
-        <v>25.07</v>
+        <v>18.370000000000001</v>
       </c>
       <c r="D67" s="0">
-        <v>31.030000000000001</v>
+        <v>30.68</v>
       </c>
       <c r="E67" s="0">
-        <v>140.89879999999999</v>
+        <v>88.768839999999997</v>
       </c>
       <c r="F67" s="0">
-        <v>99.299999999999997</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="68">
@@ -1468,19 +1432,19 @@
         <v>2017</v>
       </c>
       <c r="B68" s="0">
-        <v>117.89</v>
+        <v>108.13</v>
       </c>
       <c r="C68" s="0">
-        <v>9.3200000000000003</v>
+        <v>6.9299999999999997</v>
       </c>
       <c r="D68" s="0">
-        <v>30.890000000000001</v>
+        <v>30.829999999999998</v>
       </c>
       <c r="E68" s="0">
-        <v>259.98379999999997</v>
+        <v>274.1567</v>
       </c>
       <c r="F68" s="0">
-        <v>7.4000000000000004</v>
+        <v>223.09999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -1488,19 +1452,19 @@
         <v>2017</v>
       </c>
       <c r="B69" s="0">
-        <v>237.97999999999999</v>
+        <v>104.62</v>
       </c>
       <c r="C69" s="0">
-        <v>25.920000000000002</v>
+        <v>16.969999999999999</v>
       </c>
       <c r="D69" s="0">
-        <v>32.18</v>
+        <v>30.41</v>
       </c>
       <c r="E69" s="0">
-        <v>10.31753</v>
+        <v>67.795649999999995</v>
       </c>
       <c r="F69" s="0">
-        <v>2.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70">
@@ -1508,19 +1472,19 @@
         <v>2017</v>
       </c>
       <c r="B70" s="0">
-        <v>120.95</v>
+        <v>123</v>
       </c>
       <c r="C70" s="0">
-        <v>26.699999999999999</v>
+        <v>30.690000000000001</v>
       </c>
       <c r="D70" s="0">
-        <v>31.579999999999998</v>
+        <v>30.82</v>
       </c>
       <c r="E70" s="0">
-        <v>97.745149999999995</v>
+        <v>65.436229999999995</v>
       </c>
       <c r="F70" s="0">
-        <v>1.6000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1528,19 +1492,19 @@
         <v>2017</v>
       </c>
       <c r="B71" s="0">
-        <v>116.64</v>
+        <v>97.739999999999995</v>
       </c>
       <c r="C71" s="0">
-        <v>22.879999999999999</v>
+        <v>27.489999999999998</v>
       </c>
       <c r="D71" s="0">
-        <v>31.120000000000001</v>
+        <v>30.899999999999999</v>
       </c>
       <c r="E71" s="0">
-        <v>97.756230000000002</v>
+        <v>144.4761</v>
       </c>
       <c r="F71" s="0">
-        <v>2.2999999999999998</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="72">
@@ -1548,19 +1512,19 @@
         <v>2017</v>
       </c>
       <c r="B72" s="0">
-        <v>114.05</v>
+        <v>108.95999999999999</v>
       </c>
       <c r="C72" s="0">
-        <v>21.370000000000001</v>
+        <v>24.23</v>
       </c>
       <c r="D72" s="0">
-        <v>30.93</v>
+        <v>31.379999999999999</v>
       </c>
       <c r="E72" s="0">
-        <v>96.281570000000002</v>
+        <v>131.35290000000001</v>
       </c>
       <c r="F72" s="0">
-        <v>2.7000000000000002</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="73">
@@ -1568,19 +1532,19 @@
         <v>2017</v>
       </c>
       <c r="B73" s="0">
-        <v>103.89</v>
+        <v>150.12</v>
       </c>
       <c r="C73" s="0">
-        <v>6.6799999999999997</v>
+        <v>14.699999999999999</v>
       </c>
       <c r="D73" s="0">
-        <v>31.010000000000002</v>
+        <v>31.739999999999998</v>
       </c>
       <c r="E73" s="0">
-        <v>230.24680000000001</v>
+        <v>78.342399999999998</v>
       </c>
       <c r="F73" s="0">
-        <v>224</v>
+        <v>5.4000000000000004</v>
       </c>
     </row>
     <row r="74">
@@ -1588,19 +1552,19 @@
         <v>2017</v>
       </c>
       <c r="B74" s="0">
-        <v>104.62</v>
+        <v>132.72999999999999</v>
       </c>
       <c r="C74" s="0">
-        <v>16.969999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="D74" s="0">
-        <v>30.41</v>
+        <v>30.82</v>
       </c>
       <c r="E74" s="0">
-        <v>67.795649999999995</v>
+        <v>131.30369999999999</v>
       </c>
       <c r="F74" s="0">
-        <v>165</v>
+        <v>6.0999999999999996</v>
       </c>
     </row>
     <row r="75">
@@ -1608,19 +1572,19 @@
         <v>2017</v>
       </c>
       <c r="B75" s="0">
-        <v>169.69</v>
+        <v>136.75</v>
       </c>
       <c r="C75" s="0">
-        <v>29.5</v>
+        <v>15.74</v>
       </c>
       <c r="D75" s="0">
-        <v>32.509999999999998</v>
+        <v>30.440000000000001</v>
       </c>
       <c r="E75" s="0">
-        <v>58.238169999999997</v>
+        <v>100.9525</v>
       </c>
       <c r="F75" s="0">
-        <v>1.3999999999999999</v>
+        <v>4.7000000000000002</v>
       </c>
     </row>
     <row r="76">
@@ -1628,19 +1592,19 @@
         <v>2017</v>
       </c>
       <c r="B76" s="0">
-        <v>115.33</v>
+        <v>146.75999999999999</v>
       </c>
       <c r="C76" s="0">
-        <v>4.7400000000000002</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="D76" s="0">
-        <v>32.159999999999997</v>
+        <v>29.77</v>
       </c>
       <c r="E76" s="0">
-        <v>169.64490000000001</v>
+        <v>68.106480000000005</v>
       </c>
       <c r="F76" s="0">
-        <v>11.5</v>
+        <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1648,19 +1612,19 @@
         <v>2017</v>
       </c>
       <c r="B77" s="0">
-        <v>111.98</v>
+        <v>147.18000000000001</v>
       </c>
       <c r="C77" s="0">
-        <v>13.699999999999999</v>
+        <v>14.9</v>
       </c>
       <c r="D77" s="0">
-        <v>32.689999999999998</v>
+        <v>30.329999999999998</v>
       </c>
       <c r="E77" s="0">
-        <v>60.900210000000001</v>
+        <v>111.0335</v>
       </c>
       <c r="F77" s="0">
-        <v>191.09999999999999</v>
+        <v>5.2000000000000002</v>
       </c>
     </row>
     <row r="78">
@@ -1668,19 +1632,19 @@
         <v>2017</v>
       </c>
       <c r="B78" s="0">
-        <v>150.12</v>
+        <v>175.97</v>
       </c>
       <c r="C78" s="0">
-        <v>14.699999999999999</v>
+        <v>11.67</v>
       </c>
       <c r="D78" s="0">
-        <v>31.739999999999998</v>
+        <v>30.16</v>
       </c>
       <c r="E78" s="0">
-        <v>78.342399999999998</v>
+        <v>45.853450000000002</v>
       </c>
       <c r="F78" s="0">
-        <v>5.4000000000000004</v>
+        <v>7.4000000000000004</v>
       </c>
     </row>
     <row r="79">
@@ -1688,19 +1652,19 @@
         <v>2017</v>
       </c>
       <c r="B79" s="0">
-        <v>147.72999999999999</v>
+        <v>80.260000000000005</v>
       </c>
       <c r="C79" s="0">
-        <v>10.77</v>
+        <v>14.94</v>
       </c>
       <c r="D79" s="0">
-        <v>31.219999999999999</v>
+        <v>30.5</v>
       </c>
       <c r="E79" s="0">
-        <v>103.6382</v>
+        <v>173.32169999999999</v>
       </c>
       <c r="F79" s="0">
-        <v>7.4000000000000004</v>
+        <v>184.40000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1708,19 +1672,19 @@
         <v>2017</v>
       </c>
       <c r="B80" s="0">
-        <v>171.27000000000001</v>
+        <v>90.930000000000007</v>
       </c>
       <c r="C80" s="0">
-        <v>22.649999999999999</v>
+        <v>16.48</v>
       </c>
       <c r="D80" s="0">
-        <v>30.309999999999999</v>
+        <v>30.010000000000002</v>
       </c>
       <c r="E80" s="0">
-        <v>24.763570000000001</v>
+        <v>117.61369999999999</v>
       </c>
       <c r="F80" s="0">
-        <v>2.8999999999999999</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="81">
@@ -1728,19 +1692,19 @@
         <v>2017</v>
       </c>
       <c r="B81" s="0">
-        <v>183.25999999999999</v>
+        <v>85.109999999999999</v>
       </c>
       <c r="C81" s="0">
-        <v>9.9600000000000009</v>
+        <v>18.530000000000001</v>
       </c>
       <c r="D81" s="0">
-        <v>30.370000000000001</v>
+        <v>29.850000000000001</v>
       </c>
       <c r="E81" s="0">
-        <v>44.294420000000002</v>
+        <v>121.6772</v>
       </c>
       <c r="F81" s="0">
-        <v>8.6999999999999993</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="82">
@@ -1748,19 +1712,19 @@
         <v>2017</v>
       </c>
       <c r="B82" s="0">
-        <v>154.94999999999999</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="C82" s="0">
-        <v>17.359999999999999</v>
+        <v>25.199999999999999</v>
       </c>
       <c r="D82" s="0">
-        <v>29.620000000000001</v>
+        <v>29.699999999999999</v>
       </c>
       <c r="E82" s="0">
-        <v>66.975229999999996</v>
+        <v>143.89760000000001</v>
       </c>
       <c r="F82" s="0">
-        <v>4.4000000000000004</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
@@ -1768,19 +1732,19 @@
         <v>2017</v>
       </c>
       <c r="B83" s="0">
-        <v>200.75999999999999</v>
+        <v>63.149999999999999</v>
       </c>
       <c r="C83" s="0">
-        <v>27.579999999999998</v>
+        <v>24.039999999999999</v>
       </c>
       <c r="D83" s="0">
-        <v>29.129999999999999</v>
+        <v>30.469999999999999</v>
       </c>
       <c r="E83" s="0">
-        <v>38.248950000000001</v>
+        <v>143.26310000000001</v>
       </c>
       <c r="F83" s="0">
-        <v>1.8999999999999999</v>
+        <v>112.09999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1788,19 +1752,19 @@
         <v>2017</v>
       </c>
       <c r="B84" s="0">
-        <v>95.75</v>
+        <v>72.549999999999997</v>
       </c>
       <c r="C84" s="0">
-        <v>13.06</v>
+        <v>17.77</v>
       </c>
       <c r="D84" s="0">
-        <v>29.059999999999999</v>
+        <v>30.23</v>
       </c>
       <c r="E84" s="0">
-        <v>191.44390000000001</v>
+        <v>200.17240000000001</v>
       </c>
       <c r="F84" s="0">
-        <v>195</v>
+        <v>164.40000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1808,19 +1772,19 @@
         <v>2017</v>
       </c>
       <c r="B85" s="0">
-        <v>170.08000000000001</v>
+        <v>201.34</v>
       </c>
       <c r="C85" s="0">
-        <v>21.289999999999999</v>
+        <v>14.67</v>
       </c>
       <c r="D85" s="0">
-        <v>30.050000000000001</v>
+        <v>31.84</v>
       </c>
       <c r="E85" s="0">
-        <v>119.3159</v>
+        <v>69.361559999999997</v>
       </c>
       <c r="F85" s="0">
-        <v>3.2000000000000002</v>
+        <v>6.2999999999999998</v>
       </c>
     </row>
     <row r="86">
@@ -1828,19 +1792,19 @@
         <v>2017</v>
       </c>
       <c r="B86" s="0">
-        <v>143.69</v>
+        <v>69.290000000000006</v>
       </c>
       <c r="C86" s="0">
-        <v>19.370000000000001</v>
+        <v>12.039999999999999</v>
       </c>
       <c r="D86" s="0">
-        <v>29.719999999999999</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E86" s="0">
-        <v>62.801389999999998</v>
+        <v>219.70949999999999</v>
       </c>
       <c r="F86" s="0">
-        <v>3.5</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
@@ -1848,19 +1812,19 @@
         <v>2017</v>
       </c>
       <c r="B87" s="0">
-        <v>91.400000000000006</v>
+        <v>53.979999999999997</v>
       </c>
       <c r="C87" s="0">
-        <v>12.09</v>
+        <v>23.57</v>
       </c>
       <c r="D87" s="0">
-        <v>30.27</v>
+        <v>31.559999999999999</v>
       </c>
       <c r="E87" s="0">
-        <v>139.1797</v>
+        <v>103.9933</v>
       </c>
       <c r="F87" s="0">
-        <v>202.09999999999999</v>
+        <v>118.90000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1868,19 +1832,19 @@
         <v>2017</v>
       </c>
       <c r="B88" s="0">
-        <v>90.930000000000007</v>
+        <v>53.329999999999998</v>
       </c>
       <c r="C88" s="0">
-        <v>16.48</v>
+        <v>26.18</v>
       </c>
       <c r="D88" s="0">
-        <v>30.010000000000002</v>
+        <v>31.760000000000002</v>
       </c>
       <c r="E88" s="0">
-        <v>117.61369999999999</v>
+        <v>146.3982</v>
       </c>
       <c r="F88" s="0">
-        <v>170.5</v>
+        <v>97.299999999999997</v>
       </c>
     </row>
     <row r="89">
@@ -1888,19 +1852,19 @@
         <v>2017</v>
       </c>
       <c r="B89" s="0">
-        <v>64.939999999999998</v>
+        <v>63.25</v>
       </c>
       <c r="C89" s="0">
-        <v>27.260000000000002</v>
+        <v>27.68</v>
       </c>
       <c r="D89" s="0">
-        <v>30.079999999999998</v>
+        <v>32.490000000000002</v>
       </c>
       <c r="E89" s="0">
-        <v>135.19829999999999</v>
+        <v>117.4522</v>
       </c>
       <c r="F89" s="0">
-        <v>86.400000000000006</v>
+        <v>84.200000000000003</v>
       </c>
     </row>
     <row r="90">
@@ -1908,19 +1872,19 @@
         <v>2017</v>
       </c>
       <c r="B90" s="0">
-        <v>63.149999999999999</v>
+        <v>70.629999999999995</v>
       </c>
       <c r="C90" s="0">
-        <v>24.039999999999999</v>
+        <v>13.51</v>
       </c>
       <c r="D90" s="0">
-        <v>30.469999999999999</v>
+        <v>31.73</v>
       </c>
       <c r="E90" s="0">
-        <v>143.26310000000001</v>
+        <v>174.86150000000001</v>
       </c>
       <c r="F90" s="0">
-        <v>112.09999999999999</v>
+        <v>201.5</v>
       </c>
     </row>
     <row r="91">
@@ -1928,19 +1892,19 @@
         <v>2017</v>
       </c>
       <c r="B91" s="0">
-        <v>63.579999999999998</v>
+        <v>67.670000000000002</v>
       </c>
       <c r="C91" s="0">
-        <v>20.010000000000002</v>
+        <v>20.390000000000001</v>
       </c>
       <c r="D91" s="0">
-        <v>30.280000000000001</v>
+        <v>31.800000000000001</v>
       </c>
       <c r="E91" s="0">
-        <v>151.00919999999999</v>
+        <v>132.94409999999999</v>
       </c>
       <c r="F91" s="0">
-        <v>146.90000000000001</v>
+        <v>144.19999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -1948,19 +1912,19 @@
         <v>2017</v>
       </c>
       <c r="B92" s="0">
-        <v>82.790000000000006</v>
+        <v>62.82</v>
       </c>
       <c r="C92" s="0">
-        <v>21.170000000000002</v>
+        <v>23.16</v>
       </c>
       <c r="D92" s="0">
-        <v>30.75</v>
+        <v>33.57</v>
       </c>
       <c r="E92" s="0">
-        <v>120.69370000000001</v>
+        <v>103.4145</v>
       </c>
       <c r="F92" s="0">
-        <v>133.80000000000001</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
@@ -1968,19 +1932,19 @@
         <v>2017</v>
       </c>
       <c r="B93" s="0">
-        <v>61.909999999999997</v>
+        <v>64.370000000000005</v>
       </c>
       <c r="C93" s="0">
-        <v>18.420000000000002</v>
+        <v>23.91</v>
       </c>
       <c r="D93" s="0">
-        <v>31.859999999999999</v>
+        <v>32.68</v>
       </c>
       <c r="E93" s="0">
-        <v>132.25790000000001</v>
+        <v>118.46680000000001</v>
       </c>
       <c r="F93" s="0">
-        <v>162.09999999999999</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="94">
@@ -1988,19 +1952,19 @@
         <v>2017</v>
       </c>
       <c r="B94" s="0">
-        <v>63.25</v>
+        <v>85.579999999999998</v>
       </c>
       <c r="C94" s="0">
-        <v>27.68</v>
+        <v>10.800000000000001</v>
       </c>
       <c r="D94" s="0">
-        <v>32.490000000000002</v>
+        <v>31.379999999999999</v>
       </c>
       <c r="E94" s="0">
-        <v>117.4522</v>
+        <v>234.02979999999999</v>
       </c>
       <c r="F94" s="0">
-        <v>84.200000000000003</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="95">
@@ -2008,19 +1972,19 @@
         <v>2017</v>
       </c>
       <c r="B95" s="0">
-        <v>63.75</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="C95" s="0">
-        <v>14.029999999999999</v>
+        <v>15.970000000000001</v>
       </c>
       <c r="D95" s="0">
-        <v>31.899999999999999</v>
+        <v>31.640000000000001</v>
       </c>
       <c r="E95" s="0">
-        <v>230.05930000000001</v>
+        <v>178.0367</v>
       </c>
       <c r="F95" s="0">
-        <v>199.19999999999999</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96">
@@ -2028,19 +1992,19 @@
         <v>2017</v>
       </c>
       <c r="B96" s="0">
-        <v>58.649999999999999</v>
+        <v>67.700000000000003</v>
       </c>
       <c r="C96" s="0">
-        <v>8.4399999999999995</v>
+        <v>30.890000000000001</v>
       </c>
       <c r="D96" s="0">
-        <v>31.969999999999999</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="E96" s="0">
-        <v>273.6626</v>
+        <v>67.009219999999999</v>
       </c>
       <c r="F96" s="0">
-        <v>234.69999999999999</v>
+        <v>62.299999999999997</v>
       </c>
     </row>
     <row r="97">
@@ -2048,19 +2012,19 @@
         <v>2017</v>
       </c>
       <c r="B97" s="0">
-        <v>64.370000000000005</v>
+        <v>68.629999999999995</v>
       </c>
       <c r="C97" s="0">
-        <v>23.91</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="D97" s="0">
-        <v>32.68</v>
+        <v>32.579999999999998</v>
       </c>
       <c r="E97" s="0">
-        <v>118.46680000000001</v>
+        <v>96.350309999999993</v>
       </c>
       <c r="F97" s="0">
-        <v>113.8</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="98">
@@ -2068,19 +2032,19 @@
         <v>2017</v>
       </c>
       <c r="B98" s="0">
-        <v>66.040000000000006</v>
+        <v>105.14</v>
       </c>
       <c r="C98" s="0">
-        <v>16.530000000000001</v>
+        <v>27.489999999999998</v>
       </c>
       <c r="D98" s="0">
-        <v>32.520000000000003</v>
+        <v>31.300000000000001</v>
       </c>
       <c r="E98" s="0">
-        <v>184.09399999999999</v>
+        <v>151.6944</v>
       </c>
       <c r="F98" s="0">
-        <v>177.30000000000001</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="99">
@@ -2088,19 +2052,19 @@
         <v>2017</v>
       </c>
       <c r="B99" s="0">
-        <v>78.930000000000007</v>
+        <v>100.58</v>
       </c>
       <c r="C99" s="0">
-        <v>13.880000000000001</v>
+        <v>24.32</v>
       </c>
       <c r="D99" s="0">
-        <v>32.210000000000001</v>
+        <v>31.530000000000001</v>
       </c>
       <c r="E99" s="0">
-        <v>214.55500000000001</v>
+        <v>131.3982</v>
       </c>
       <c r="F99" s="0">
-        <v>195.30000000000001</v>
+        <v>105.59999999999999</v>
       </c>
     </row>
     <row r="100">
@@ -2108,19 +2072,19 @@
         <v>2017</v>
       </c>
       <c r="B100" s="0">
-        <v>85.579999999999998</v>
+        <v>169.69999999999999</v>
       </c>
       <c r="C100" s="0">
-        <v>10.800000000000001</v>
+        <v>10.470000000000001</v>
       </c>
       <c r="D100" s="0">
-        <v>31.379999999999999</v>
+        <v>31.66</v>
       </c>
       <c r="E100" s="0">
-        <v>234.02979999999999</v>
+        <v>252.0556</v>
       </c>
       <c r="F100" s="0">
-        <v>213.5</v>
+        <v>8.0999999999999996</v>
       </c>
     </row>
     <row r="101">
@@ -2128,19 +2092,19 @@
         <v>2017</v>
       </c>
       <c r="B101" s="0">
-        <v>90.510000000000005</v>
+        <v>159.78999999999999</v>
       </c>
       <c r="C101" s="0">
-        <v>21.82</v>
+        <v>17.59</v>
       </c>
       <c r="D101" s="0">
-        <v>32.93</v>
+        <v>32.009999999999998</v>
       </c>
       <c r="E101" s="0">
-        <v>139.73179999999999</v>
+        <v>114.03959999999999</v>
       </c>
       <c r="F101" s="0">
-        <v>127.59999999999999</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="102">
@@ -2148,19 +2112,19 @@
         <v>2017</v>
       </c>
       <c r="B102" s="0">
-        <v>101.76000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="C102" s="0">
-        <v>25.73</v>
+        <v>10.279999999999999</v>
       </c>
       <c r="D102" s="0">
-        <v>32.229999999999997</v>
+        <v>30.530000000000001</v>
       </c>
       <c r="E102" s="0">
-        <v>172.34370000000001</v>
+        <v>294.42090000000002</v>
       </c>
       <c r="F102" s="0">
-        <v>94.599999999999994</v>
+        <v>212.09999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -2168,19 +2132,19 @@
         <v>2017</v>
       </c>
       <c r="B103" s="0">
-        <v>109.33</v>
+        <v>99.25</v>
       </c>
       <c r="C103" s="0">
-        <v>27.260000000000002</v>
+        <v>6.4800000000000004</v>
       </c>
       <c r="D103" s="0">
-        <v>31.600000000000001</v>
+        <v>30.07</v>
       </c>
       <c r="E103" s="0">
-        <v>151.78219999999999</v>
+        <v>438.95609999999999</v>
       </c>
       <c r="F103" s="0">
-        <v>82.700000000000003</v>
+        <v>224.90000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2188,19 +2152,19 @@
         <v>2017</v>
       </c>
       <c r="B104" s="0">
-        <v>159.78999999999999</v>
+        <v>95.629999999999995</v>
       </c>
       <c r="C104" s="0">
-        <v>17.59</v>
+        <v>20.989999999999998</v>
       </c>
       <c r="D104" s="0">
-        <v>32.009999999999998</v>
+        <v>29.949999999999999</v>
       </c>
       <c r="E104" s="0">
-        <v>114.03959999999999</v>
+        <v>128.11500000000001</v>
       </c>
       <c r="F104" s="0">
-        <v>4.4000000000000004</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105">
@@ -2208,19 +2172,19 @@
         <v>2017</v>
       </c>
       <c r="B105" s="0">
-        <v>97.900000000000006</v>
+        <v>93.439999999999998</v>
       </c>
       <c r="C105" s="0">
-        <v>8.4600000000000009</v>
+        <v>24.149999999999999</v>
       </c>
       <c r="D105" s="0">
-        <v>29.98</v>
+        <v>29.890000000000001</v>
       </c>
       <c r="E105" s="0">
-        <v>320.48700000000002</v>
+        <v>132.83090000000001</v>
       </c>
       <c r="F105" s="0">
-        <v>220.09999999999999</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="106">
@@ -2228,19 +2192,19 @@
         <v>2017</v>
       </c>
       <c r="B106" s="0">
-        <v>93.439999999999998</v>
+        <v>91.420000000000002</v>
       </c>
       <c r="C106" s="0">
-        <v>24.149999999999999</v>
+        <v>26.93</v>
       </c>
       <c r="D106" s="0">
-        <v>29.890000000000001</v>
+        <v>29.579999999999998</v>
       </c>
       <c r="E106" s="0">
-        <v>132.83090000000001</v>
+        <v>111.2762</v>
       </c>
       <c r="F106" s="0">
-        <v>106.3</v>
+        <v>85.200000000000003</v>
       </c>
     </row>
     <row r="107">
@@ -2248,19 +2212,19 @@
         <v>2017</v>
       </c>
       <c r="B107" s="0">
-        <v>88.650000000000006</v>
+        <v>86.040000000000006</v>
       </c>
       <c r="C107" s="0">
-        <v>11.300000000000001</v>
+        <v>13.380000000000001</v>
       </c>
       <c r="D107" s="0">
-        <v>30.43</v>
+        <v>30.41</v>
       </c>
       <c r="E107" s="0">
-        <v>207.59119999999999</v>
+        <v>237.45590000000001</v>
       </c>
       <c r="F107" s="0">
-        <v>210.19999999999999</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108">
@@ -2268,19 +2232,19 @@
         <v>2017</v>
       </c>
       <c r="B108" s="0">
-        <v>87.790000000000006</v>
+        <v>107.16</v>
       </c>
       <c r="C108" s="0">
-        <v>4.0999999999999996</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D108" s="0">
-        <v>29.940000000000001</v>
+        <v>30.41</v>
       </c>
       <c r="E108" s="0">
-        <v>509.4058</v>
+        <v>144.3989</v>
       </c>
       <c r="F108" s="0">
-        <v>226.90000000000001</v>
+        <v>157.09999999999999</v>
       </c>
     </row>
     <row r="109">
@@ -2288,19 +2252,19 @@
         <v>2017</v>
       </c>
       <c r="B109" s="0">
-        <v>86.799999999999997</v>
+        <v>96.760000000000005</v>
       </c>
       <c r="C109" s="0">
-        <v>11.23</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="D109" s="0">
-        <v>30.239999999999998</v>
+        <v>31.109999999999999</v>
       </c>
       <c r="E109" s="0">
-        <v>234.55850000000001</v>
+        <v>142.70609999999999</v>
       </c>
       <c r="F109" s="0">
-        <v>210.40000000000001</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110">
@@ -2308,19 +2272,19 @@
         <v>2017</v>
       </c>
       <c r="B110" s="0">
-        <v>86</v>
+        <v>89.340000000000003</v>
       </c>
       <c r="C110" s="0">
-        <v>17.329999999999998</v>
+        <v>26.600000000000001</v>
       </c>
       <c r="D110" s="0">
-        <v>31.93</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="E110" s="0">
-        <v>170.51779999999999</v>
+        <v>100.1776</v>
       </c>
       <c r="F110" s="0">
-        <v>165.90000000000001</v>
+        <v>89.700000000000003</v>
       </c>
     </row>
     <row r="111">
@@ -2328,19 +2292,19 @@
         <v>2017</v>
       </c>
       <c r="B111" s="0">
-        <v>82.920000000000002</v>
+        <v>78.680000000000007</v>
       </c>
       <c r="C111" s="0">
-        <v>23.93</v>
+        <v>15.81</v>
       </c>
       <c r="D111" s="0">
-        <v>30.52</v>
+        <v>31.420000000000002</v>
       </c>
       <c r="E111" s="0">
-        <v>132.3244</v>
+        <v>207.46510000000001</v>
       </c>
       <c r="F111" s="0">
-        <v>109.90000000000001</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112">
@@ -2348,19 +2312,19 @@
         <v>2017</v>
       </c>
       <c r="B112" s="0">
-        <v>83.170000000000002</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="C112" s="0">
-        <v>29.370000000000001</v>
+        <v>12.85</v>
       </c>
       <c r="D112" s="0">
-        <v>30.120000000000001</v>
+        <v>31.489999999999998</v>
       </c>
       <c r="E112" s="0">
-        <v>119.0393</v>
+        <v>223.78039999999999</v>
       </c>
       <c r="F112" s="0">
-        <v>69.700000000000003</v>
+        <v>200.5</v>
       </c>
     </row>
     <row r="113">
@@ -2368,19 +2332,19 @@
         <v>2017</v>
       </c>
       <c r="B113" s="0">
-        <v>143.63</v>
+        <v>287.87</v>
       </c>
       <c r="C113" s="0">
-        <v>8.6099999999999994</v>
+        <v>20.710000000000001</v>
       </c>
       <c r="D113" s="0">
-        <v>31.809999999999999</v>
+        <v>32.289999999999999</v>
       </c>
       <c r="E113" s="0">
-        <v>213.5385</v>
+        <v>82.449780000000004</v>
       </c>
       <c r="F113" s="0">
-        <v>8.6999999999999993</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="114">
@@ -2388,19 +2352,19 @@
         <v>2017</v>
       </c>
       <c r="B114" s="0">
-        <v>109.56999999999999</v>
+        <v>309.31</v>
       </c>
       <c r="C114" s="0">
-        <v>26.73</v>
+        <v>22.699999999999999</v>
       </c>
       <c r="D114" s="0">
-        <v>33.100000000000001</v>
+        <v>32.240000000000002</v>
       </c>
       <c r="E114" s="0">
-        <v>49.348120000000002</v>
+        <v>0</v>
       </c>
       <c r="F114" s="0">
-        <v>86.799999999999997</v>
+        <v>3.7999999999999998</v>
       </c>
     </row>
     <row r="115">
@@ -2408,19 +2372,19 @@
         <v>2017</v>
       </c>
       <c r="B115" s="0">
-        <v>100.56999999999999</v>
+        <v>225.41999999999999</v>
       </c>
       <c r="C115" s="0">
-        <v>26.629999999999999</v>
+        <v>21.899999999999999</v>
       </c>
       <c r="D115" s="0">
-        <v>32.259999999999998</v>
+        <v>32.359999999999999</v>
       </c>
       <c r="E115" s="0">
-        <v>58.851799999999997</v>
+        <v>21.330449999999999</v>
       </c>
       <c r="F115" s="0">
-        <v>88.099999999999994</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="116">
@@ -2428,19 +2392,19 @@
         <v>2017</v>
       </c>
       <c r="B116" s="0">
-        <v>88.180000000000007</v>
+        <v>126.69</v>
       </c>
       <c r="C116" s="0">
-        <v>14.880000000000001</v>
+        <v>21.800000000000001</v>
       </c>
       <c r="D116" s="0">
-        <v>30.59</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="E116" s="0">
-        <v>190.18340000000001</v>
+        <v>62.65945</v>
       </c>
       <c r="F116" s="0">
-        <v>184.59999999999999</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="117">
@@ -2448,19 +2412,19 @@
         <v>2017</v>
       </c>
       <c r="B117" s="0">
-        <v>118.08</v>
+        <v>103.41</v>
       </c>
       <c r="C117" s="0">
-        <v>17.27</v>
+        <v>20.109999999999999</v>
       </c>
       <c r="D117" s="0">
-        <v>32.299999999999997</v>
+        <v>31.59</v>
       </c>
       <c r="E117" s="0">
-        <v>168.56399999999999</v>
+        <v>117.8601</v>
       </c>
       <c r="F117" s="0">
-        <v>3.8999999999999999</v>
+        <v>139.59999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -2468,19 +2432,19 @@
         <v>2017</v>
       </c>
       <c r="B118" s="0">
-        <v>85.980000000000004</v>
+        <v>87.340000000000003</v>
       </c>
       <c r="C118" s="0">
-        <v>12.699999999999999</v>
+        <v>10.789999999999999</v>
       </c>
       <c r="D118" s="0">
-        <v>31.309999999999999</v>
+        <v>31.370000000000001</v>
       </c>
       <c r="E118" s="0">
-        <v>181.47229999999999</v>
+        <v>163.2414</v>
       </c>
       <c r="F118" s="0">
-        <v>201.09999999999999</v>
+        <v>212.80000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -2488,19 +2452,19 @@
         <v>2017</v>
       </c>
       <c r="B119" s="0">
-        <v>90</v>
+        <v>118.43000000000001</v>
       </c>
       <c r="C119" s="0">
-        <v>16.140000000000001</v>
+        <v>21.309999999999999</v>
       </c>
       <c r="D119" s="0">
-        <v>31.66</v>
+        <v>32.469999999999999</v>
       </c>
       <c r="E119" s="0">
-        <v>167.49289999999999</v>
+        <v>138.7406</v>
       </c>
       <c r="F119" s="0">
-        <v>175.90000000000001</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="120">
@@ -2508,39 +2472,39 @@
         <v>2017</v>
       </c>
       <c r="B120" s="0">
-        <v>118.43000000000001</v>
+        <v>132.00999999999999</v>
       </c>
       <c r="C120" s="0">
-        <v>21.309999999999999</v>
+        <v>25.210000000000001</v>
       </c>
       <c r="D120" s="0">
-        <v>32.469999999999999</v>
+        <v>31.57</v>
       </c>
       <c r="E120" s="0">
-        <v>138.7406</v>
+        <v>102.0629</v>
       </c>
       <c r="F120" s="0">
-        <v>2.7000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B121" s="0">
-        <v>132.00999999999999</v>
+        <v>110.59</v>
       </c>
       <c r="C121" s="0">
-        <v>25.210000000000001</v>
+        <v>27.510000000000002</v>
       </c>
       <c r="D121" s="0">
-        <v>31.57</v>
+        <v>31.93</v>
       </c>
       <c r="E121" s="0">
-        <v>102.0629</v>
+        <v>146.0566</v>
       </c>
       <c r="F121" s="0">
-        <v>2</v>
+        <v>80.700000000000003</v>
       </c>
     </row>
     <row r="122">
@@ -2548,19 +2512,19 @@
         <v>2018</v>
       </c>
       <c r="B122" s="0">
-        <v>102.7</v>
+        <v>191.09999999999999</v>
       </c>
       <c r="C122" s="0">
-        <v>12.18</v>
+        <v>22.629999999999999</v>
       </c>
       <c r="D122" s="0">
-        <v>31.329999999999998</v>
+        <v>33.140000000000001</v>
       </c>
       <c r="E122" s="0">
-        <v>164.9068</v>
+        <v>14.047190000000001</v>
       </c>
       <c r="F122" s="0">
-        <v>202.80000000000001</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="123">
@@ -2568,19 +2532,19 @@
         <v>2018</v>
       </c>
       <c r="B123" s="0">
-        <v>168.34999999999999</v>
+        <v>160.03999999999999</v>
       </c>
       <c r="C123" s="0">
-        <v>14.460000000000001</v>
+        <v>22.219999999999999</v>
       </c>
       <c r="D123" s="0">
-        <v>31.440000000000001</v>
+        <v>32.439999999999998</v>
       </c>
       <c r="E123" s="0">
-        <v>184.28440000000001</v>
+        <v>20.330079999999999</v>
       </c>
       <c r="F123" s="0">
-        <v>177.5</v>
+        <v>117.90000000000001</v>
       </c>
     </row>
     <row r="124">
@@ -2588,19 +2552,19 @@
         <v>2018</v>
       </c>
       <c r="B124" s="0">
-        <v>117.8</v>
+        <v>143.63</v>
       </c>
       <c r="C124" s="0">
-        <v>15.390000000000001</v>
+        <v>24.440000000000001</v>
       </c>
       <c r="D124" s="0">
-        <v>32.380000000000003</v>
+        <v>32.100000000000001</v>
       </c>
       <c r="E124" s="0">
-        <v>148.28049999999999</v>
+        <v>35.498159999999999</v>
       </c>
       <c r="F124" s="0">
-        <v>177.30000000000001</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="125">
@@ -2608,19 +2572,19 @@
         <v>2018</v>
       </c>
       <c r="B125" s="0">
-        <v>114.95999999999999</v>
+        <v>108.06999999999999</v>
       </c>
       <c r="C125" s="0">
-        <v>13.15</v>
+        <v>8.5099999999999998</v>
       </c>
       <c r="D125" s="0">
-        <v>32.399999999999999</v>
+        <v>31.32</v>
       </c>
       <c r="E125" s="0">
-        <v>201.1404</v>
+        <v>187.7996</v>
       </c>
       <c r="F125" s="0">
-        <v>194.59999999999999</v>
+        <v>220.40000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -2628,19 +2592,19 @@
         <v>2018</v>
       </c>
       <c r="B126" s="0">
-        <v>117.62</v>
+        <v>109.70999999999999</v>
       </c>
       <c r="C126" s="0">
-        <v>29.859999999999999</v>
+        <v>29.079999999999998</v>
       </c>
       <c r="D126" s="0">
-        <v>32.009999999999998</v>
+        <v>31.010000000000002</v>
       </c>
       <c r="E126" s="0">
-        <v>75.066490000000002</v>
+        <v>100.625</v>
       </c>
       <c r="F126" s="0">
-        <v>64.5</v>
+        <v>70.299999999999997</v>
       </c>
     </row>
     <row r="127">
@@ -2648,19 +2612,19 @@
         <v>2018</v>
       </c>
       <c r="B127" s="0">
-        <v>142.41</v>
+        <v>128.28</v>
       </c>
       <c r="C127" s="0">
-        <v>13.050000000000001</v>
+        <v>30.579999999999998</v>
       </c>
       <c r="D127" s="0">
-        <v>32.619999999999997</v>
+        <v>30.920000000000002</v>
       </c>
       <c r="E127" s="0">
-        <v>128.9606</v>
+        <v>120.5517</v>
       </c>
       <c r="F127" s="0">
-        <v>191.30000000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128">
@@ -2668,19 +2632,19 @@
         <v>2018</v>
       </c>
       <c r="B128" s="0">
-        <v>127.8</v>
+        <v>132.87</v>
       </c>
       <c r="C128" s="0">
-        <v>11.890000000000001</v>
+        <v>21.100000000000001</v>
       </c>
       <c r="D128" s="0">
-        <v>32.049999999999997</v>
+        <v>34</v>
       </c>
       <c r="E128" s="0">
-        <v>175.31190000000001</v>
+        <v>45.581539999999997</v>
       </c>
       <c r="F128" s="0">
-        <v>200.40000000000001</v>
+        <v>128.90000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -2708,19 +2672,19 @@
         <v>2018</v>
       </c>
       <c r="B130" s="0">
-        <v>124.73999999999999</v>
+        <v>113.19</v>
       </c>
       <c r="C130" s="0">
-        <v>17.699999999999999</v>
+        <v>26.25</v>
       </c>
       <c r="D130" s="0">
-        <v>32.57</v>
+        <v>31.350000000000001</v>
       </c>
       <c r="E130" s="0">
-        <v>81.811189999999996</v>
+        <v>90.321179999999998</v>
       </c>
       <c r="F130" s="0">
-        <v>158.5</v>
+        <v>89.799999999999997</v>
       </c>
     </row>
     <row r="131">
@@ -2728,19 +2692,19 @@
         <v>2018</v>
       </c>
       <c r="B131" s="0">
-        <v>117.95999999999999</v>
+        <v>116.47</v>
       </c>
       <c r="C131" s="0">
-        <v>25.82</v>
+        <v>15.800000000000001</v>
       </c>
       <c r="D131" s="0">
-        <v>32.600000000000001</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="E131" s="0">
-        <v>88.24915</v>
+        <v>118.5869</v>
       </c>
       <c r="F131" s="0">
-        <v>93.099999999999994</v>
+        <v>175.5</v>
       </c>
     </row>
     <row r="132">
@@ -2748,19 +2712,19 @@
         <v>2018</v>
       </c>
       <c r="B132" s="0">
-        <v>111.87</v>
+        <v>118</v>
       </c>
       <c r="C132" s="0">
-        <v>22.890000000000001</v>
+        <v>11.050000000000001</v>
       </c>
       <c r="D132" s="0">
-        <v>31.059999999999999</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="E132" s="0">
-        <v>115.5448</v>
+        <v>110.68170000000001</v>
       </c>
       <c r="F132" s="0">
-        <v>115.90000000000001</v>
+        <v>208.69999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -2768,19 +2732,19 @@
         <v>2018</v>
       </c>
       <c r="B133" s="0">
-        <v>124.63</v>
+        <v>128.68000000000001</v>
       </c>
       <c r="C133" s="0">
-        <v>29.739999999999998</v>
+        <v>16.109999999999999</v>
       </c>
       <c r="D133" s="0">
-        <v>33.229999999999997</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="E133" s="0">
-        <v>82.222470000000001</v>
+        <v>47.802709999999998</v>
       </c>
       <c r="F133" s="0">
-        <v>66.200000000000003</v>
+        <v>171.90000000000001</v>
       </c>
     </row>
     <row r="134">
@@ -2808,19 +2772,19 @@
         <v>2018</v>
       </c>
       <c r="B135" s="0">
-        <v>123.61</v>
+        <v>363.42000000000002</v>
       </c>
       <c r="C135" s="0">
-        <v>21.449999999999999</v>
+        <v>22.370000000000001</v>
       </c>
       <c r="D135" s="0">
-        <v>31.399999999999999</v>
+        <v>31.109999999999999</v>
       </c>
       <c r="E135" s="0">
-        <v>117.5313</v>
+        <v>0</v>
       </c>
       <c r="F135" s="0">
-        <v>127.09999999999999</v>
+        <v>4.2999999999999998</v>
       </c>
     </row>
     <row r="136">
@@ -2828,19 +2792,19 @@
         <v>2018</v>
       </c>
       <c r="B136" s="0">
-        <v>139</v>
+        <v>405.63</v>
       </c>
       <c r="C136" s="0">
-        <v>9.8000000000000007</v>
+        <v>20.890000000000001</v>
       </c>
       <c r="D136" s="0">
-        <v>30.75</v>
+        <v>31.82</v>
       </c>
       <c r="E136" s="0">
-        <v>310.2183</v>
+        <v>0</v>
       </c>
       <c r="F136" s="0">
-        <v>209.40000000000001</v>
+        <v>5.2999999999999998</v>
       </c>
     </row>
     <row r="137">
@@ -2848,19 +2812,19 @@
         <v>2018</v>
       </c>
       <c r="B137" s="0">
-        <v>338.48000000000002</v>
+        <v>266.81</v>
       </c>
       <c r="C137" s="0">
-        <v>28.690000000000001</v>
+        <v>5.5300000000000002</v>
       </c>
       <c r="D137" s="0">
-        <v>30.859999999999999</v>
+        <v>33.189999999999998</v>
       </c>
       <c r="E137" s="0">
         <v>0</v>
       </c>
       <c r="F137" s="0">
-        <v>2.2000000000000002</v>
+        <v>16.199999999999999</v>
       </c>
     </row>
     <row r="138">
@@ -2868,19 +2832,19 @@
         <v>2018</v>
       </c>
       <c r="B138" s="0">
-        <v>405.63</v>
+        <v>198.94</v>
       </c>
       <c r="C138" s="0">
-        <v>20.890000000000001</v>
+        <v>11.99</v>
       </c>
       <c r="D138" s="0">
-        <v>31.82</v>
+        <v>31.699999999999999</v>
       </c>
       <c r="E138" s="0">
-        <v>0</v>
+        <v>81.519599999999997</v>
       </c>
       <c r="F138" s="0">
-        <v>5.2999999999999998</v>
+        <v>191.59999999999999</v>
       </c>
     </row>
     <row r="139">
@@ -2888,19 +2852,19 @@
         <v>2018</v>
       </c>
       <c r="B139" s="0">
-        <v>170.47</v>
+        <v>155.13</v>
       </c>
       <c r="C139" s="0">
-        <v>20.289999999999999</v>
+        <v>26.91</v>
       </c>
       <c r="D139" s="0">
-        <v>31.75</v>
+        <v>30.940000000000001</v>
       </c>
       <c r="E139" s="0">
-        <v>131.32159999999999</v>
+        <v>84.880189999999999</v>
       </c>
       <c r="F139" s="0">
-        <v>131</v>
+        <v>81.799999999999997</v>
       </c>
     </row>
     <row r="140">
@@ -2908,19 +2872,19 @@
         <v>2018</v>
       </c>
       <c r="B140" s="0">
-        <v>238.74000000000001</v>
+        <v>169.63</v>
       </c>
       <c r="C140" s="0">
-        <v>12.25</v>
+        <v>22.350000000000001</v>
       </c>
       <c r="D140" s="0">
-        <v>30.609999999999999</v>
+        <v>32.140000000000001</v>
       </c>
       <c r="E140" s="0">
-        <v>11.10821</v>
+        <v>128.4444</v>
       </c>
       <c r="F140" s="0">
-        <v>8.3000000000000007</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="141">
@@ -2928,19 +2892,19 @@
         <v>2018</v>
       </c>
       <c r="B141" s="0">
-        <v>235.50999999999999</v>
+        <v>162.49000000000001</v>
       </c>
       <c r="C141" s="0">
-        <v>11.699999999999999</v>
+        <v>15.369999999999999</v>
       </c>
       <c r="D141" s="0">
-        <v>29.829999999999998</v>
+        <v>31.440000000000001</v>
       </c>
       <c r="E141" s="0">
-        <v>80.606949999999998</v>
+        <v>106.1121</v>
       </c>
       <c r="F141" s="0">
-        <v>8.5999999999999996</v>
+        <v>170.19999999999999</v>
       </c>
     </row>
     <row r="142">
@@ -2948,19 +2912,19 @@
         <v>2018</v>
       </c>
       <c r="B142" s="0">
-        <v>238.74000000000001</v>
+        <v>195.58000000000001</v>
       </c>
       <c r="C142" s="0">
-        <v>17.079999999999998</v>
+        <v>9.6899999999999995</v>
       </c>
       <c r="D142" s="0">
-        <v>29.82</v>
+        <v>30.32</v>
       </c>
       <c r="E142" s="0">
-        <v>17.428609999999999</v>
+        <v>62.043750000000003</v>
       </c>
       <c r="F142" s="0">
-        <v>5.5999999999999996</v>
+        <v>200.69999999999999</v>
       </c>
     </row>
     <row r="143">
@@ -2968,19 +2932,19 @@
         <v>2018</v>
       </c>
       <c r="B143" s="0">
-        <v>252.12</v>
+        <v>181.40000000000001</v>
       </c>
       <c r="C143" s="0">
-        <v>27.670000000000002</v>
+        <v>13.029999999999999</v>
       </c>
       <c r="D143" s="0">
-        <v>29.809999999999999</v>
+        <v>30.52</v>
       </c>
       <c r="E143" s="0">
-        <v>9.2510870000000001</v>
+        <v>56.409590000000001</v>
       </c>
       <c r="F143" s="0">
-        <v>2.1000000000000001</v>
+        <v>183.90000000000001</v>
       </c>
     </row>
     <row r="144">
@@ -2988,19 +2952,19 @@
         <v>2018</v>
       </c>
       <c r="B144" s="0">
-        <v>313.80000000000001</v>
+        <v>172.00999999999999</v>
       </c>
       <c r="C144" s="0">
-        <v>8.4399999999999995</v>
+        <v>15.9</v>
       </c>
       <c r="D144" s="0">
-        <v>30.16</v>
+        <v>30.460000000000001</v>
       </c>
       <c r="E144" s="0">
-        <v>6.4261549999999996</v>
+        <v>50.813479999999998</v>
       </c>
       <c r="F144" s="0">
-        <v>13</v>
+        <v>164.90000000000001</v>
       </c>
     </row>
     <row r="145">
@@ -3008,19 +2972,19 @@
         <v>2018</v>
       </c>
       <c r="B145" s="0">
-        <v>323.31999999999999</v>
+        <v>187.94</v>
       </c>
       <c r="C145" s="0">
-        <v>10.51</v>
+        <v>24.989999999999998</v>
       </c>
       <c r="D145" s="0">
-        <v>30.010000000000002</v>
+        <v>30.73</v>
       </c>
       <c r="E145" s="0">
-        <v>7.0835189999999999</v>
+        <v>8.5341339999999999</v>
       </c>
       <c r="F145" s="0">
-        <v>11.1</v>
+        <v>93.200000000000003</v>
       </c>
     </row>
     <row r="146">
@@ -3028,19 +2992,19 @@
         <v>2018</v>
       </c>
       <c r="B146" s="0">
-        <v>354.95999999999998</v>
+        <v>400.79000000000002</v>
       </c>
       <c r="C146" s="0">
-        <v>24.489999999999998</v>
+        <v>24.710000000000001</v>
       </c>
       <c r="D146" s="0">
-        <v>30.809999999999999</v>
+        <v>30.68</v>
       </c>
       <c r="E146" s="0">
-        <v>2.2826840000000002</v>
+        <v>0</v>
       </c>
       <c r="F146" s="0">
-        <v>3.3999999999999999</v>
+        <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="147">
@@ -3048,19 +3012,19 @@
         <v>2018</v>
       </c>
       <c r="B147" s="0">
-        <v>364.17000000000002</v>
+        <v>249.25999999999999</v>
       </c>
       <c r="C147" s="0">
-        <v>23.02</v>
+        <v>24.890000000000001</v>
       </c>
       <c r="D147" s="0">
-        <v>30.760000000000002</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="E147" s="0">
-        <v>28.040769999999998</v>
+        <v>16.215789999999998</v>
       </c>
       <c r="F147" s="0">
-        <v>4</v>
+        <v>2.7999999999999998</v>
       </c>
     </row>
     <row r="148">
@@ -3068,19 +3032,19 @@
         <v>2018</v>
       </c>
       <c r="B148" s="0">
-        <v>329.72000000000003</v>
+        <v>254.22999999999999</v>
       </c>
       <c r="C148" s="0">
-        <v>13.59</v>
+        <v>21.510000000000002</v>
       </c>
       <c r="D148" s="0">
-        <v>29.789999999999999</v>
+        <v>30.699999999999999</v>
       </c>
       <c r="E148" s="0">
-        <v>59.759999999999998</v>
+        <v>31.48639</v>
       </c>
       <c r="F148" s="0">
-        <v>8.6999999999999993</v>
+        <v>3.8999999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -3088,19 +3052,19 @@
         <v>2018</v>
       </c>
       <c r="B149" s="0">
-        <v>252.77000000000001</v>
+        <v>314.89999999999998</v>
       </c>
       <c r="C149" s="0">
-        <v>22.079999999999998</v>
+        <v>11.039999999999999</v>
       </c>
       <c r="D149" s="0">
-        <v>29.120000000000001</v>
+        <v>30.449999999999999</v>
       </c>
       <c r="E149" s="0">
-        <v>6.8691060000000004</v>
+        <v>0</v>
       </c>
       <c r="F149" s="0">
-        <v>3.7000000000000002</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="150">
@@ -3108,19 +3072,19 @@
         <v>2018</v>
       </c>
       <c r="B150" s="0">
-        <v>297.75</v>
+        <v>313.80000000000001</v>
       </c>
       <c r="C150" s="0">
-        <v>22.129999999999999</v>
+        <v>8.4399999999999995</v>
       </c>
       <c r="D150" s="0">
-        <v>29.050000000000001</v>
+        <v>30.16</v>
       </c>
       <c r="E150" s="0">
-        <v>9.3626559999999994</v>
+        <v>6.4261549999999996</v>
       </c>
       <c r="F150" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -3128,19 +3092,19 @@
         <v>2018</v>
       </c>
       <c r="B151" s="0">
-        <v>359.55000000000001</v>
+        <v>380.27999999999997</v>
       </c>
       <c r="C151" s="0">
-        <v>16.41</v>
+        <v>15.09</v>
       </c>
       <c r="D151" s="0">
-        <v>30.399999999999999</v>
+        <v>30.280000000000001</v>
       </c>
       <c r="E151" s="0">
         <v>0</v>
       </c>
       <c r="F151" s="0">
-        <v>7.2000000000000002</v>
+        <v>8.4000000000000004</v>
       </c>
     </row>
     <row r="152">
@@ -3148,19 +3112,19 @@
         <v>2018</v>
       </c>
       <c r="B152" s="0">
-        <v>333.00999999999999</v>
+        <v>354.95999999999998</v>
       </c>
       <c r="C152" s="0">
-        <v>19.640000000000001</v>
+        <v>24.489999999999998</v>
       </c>
       <c r="D152" s="0">
-        <v>30.370000000000001</v>
+        <v>30.809999999999999</v>
       </c>
       <c r="E152" s="0">
-        <v>0</v>
+        <v>2.2826840000000002</v>
       </c>
       <c r="F152" s="0">
-        <v>5.2999999999999998</v>
+        <v>3.3999999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -3168,19 +3132,19 @@
         <v>2018</v>
       </c>
       <c r="B153" s="0">
-        <v>137.00999999999999</v>
+        <v>364.17000000000002</v>
       </c>
       <c r="C153" s="0">
-        <v>22.149999999999999</v>
+        <v>23.02</v>
       </c>
       <c r="D153" s="0">
-        <v>31.68</v>
+        <v>30.760000000000002</v>
       </c>
       <c r="E153" s="0">
-        <v>78.659130000000005</v>
+        <v>28.040769999999998</v>
       </c>
       <c r="F153" s="0">
-        <v>119.40000000000001</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -3188,19 +3152,19 @@
         <v>2018</v>
       </c>
       <c r="B154" s="0">
-        <v>118.95999999999999</v>
+        <v>298.32999999999998</v>
       </c>
       <c r="C154" s="0">
-        <v>23.190000000000001</v>
+        <v>22.16</v>
       </c>
       <c r="D154" s="0">
-        <v>32.130000000000003</v>
+        <v>29.289999999999999</v>
       </c>
       <c r="E154" s="0">
-        <v>78.452079999999995</v>
+        <v>12.10492</v>
       </c>
       <c r="F154" s="0">
-        <v>113.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
@@ -3208,19 +3172,19 @@
         <v>2018</v>
       </c>
       <c r="B155" s="0">
-        <v>110.59999999999999</v>
+        <v>253.63</v>
       </c>
       <c r="C155" s="0">
-        <v>22.710000000000001</v>
+        <v>24.600000000000001</v>
       </c>
       <c r="D155" s="0">
-        <v>32.030000000000001</v>
+        <v>29.120000000000001</v>
       </c>
       <c r="E155" s="0">
-        <v>112.7286</v>
+        <v>0</v>
       </c>
       <c r="F155" s="0">
-        <v>118.3</v>
+        <v>2.8999999999999999</v>
       </c>
     </row>
     <row r="156">
@@ -3228,19 +3192,19 @@
         <v>2018</v>
       </c>
       <c r="B156" s="0">
-        <v>101.68000000000001</v>
+        <v>400.44</v>
       </c>
       <c r="C156" s="0">
-        <v>14.31</v>
+        <v>17.34</v>
       </c>
       <c r="D156" s="0">
-        <v>32.259999999999998</v>
+        <v>29.510000000000002</v>
       </c>
       <c r="E156" s="0">
-        <v>101.5652</v>
+        <v>0</v>
       </c>
       <c r="F156" s="0">
-        <v>187.5</v>
+        <v>7.0999999999999996</v>
       </c>
     </row>
     <row r="157">
@@ -3248,19 +3212,19 @@
         <v>2018</v>
       </c>
       <c r="B157" s="0">
-        <v>121.87</v>
+        <v>400.88999999999999</v>
       </c>
       <c r="C157" s="0">
-        <v>17.859999999999999</v>
+        <v>15.07</v>
       </c>
       <c r="D157" s="0">
-        <v>32.409999999999997</v>
+        <v>29.629999999999999</v>
       </c>
       <c r="E157" s="0">
-        <v>87.331040000000002</v>
+        <v>31.066220000000001</v>
       </c>
       <c r="F157" s="0">
-        <v>156</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="158">
@@ -3268,19 +3232,19 @@
         <v>2018</v>
       </c>
       <c r="B158" s="0">
-        <v>450.35000000000002</v>
+        <v>328.44</v>
       </c>
       <c r="C158" s="0">
-        <v>9.9000000000000004</v>
+        <v>11.789999999999999</v>
       </c>
       <c r="D158" s="0">
-        <v>31</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="E158" s="0">
-        <v>47.784030000000001</v>
+        <v>15.58403</v>
       </c>
       <c r="F158" s="0">
-        <v>14</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="159">
@@ -3288,19 +3252,19 @@
         <v>2018</v>
       </c>
       <c r="B159" s="0">
-        <v>556.97000000000003</v>
+        <v>333.00999999999999</v>
       </c>
       <c r="C159" s="0">
-        <v>26.940000000000001</v>
+        <v>19.640000000000001</v>
       </c>
       <c r="D159" s="0">
-        <v>30.02</v>
+        <v>30.370000000000001</v>
       </c>
       <c r="E159" s="0">
         <v>0</v>
       </c>
       <c r="F159" s="0">
-        <v>3.2999999999999998</v>
+        <v>5.2999999999999998</v>
       </c>
     </row>
     <row r="160">
@@ -3308,19 +3272,19 @@
         <v>2018</v>
       </c>
       <c r="B160" s="0">
-        <v>610.88999999999999</v>
+        <v>255.59999999999999</v>
       </c>
       <c r="C160" s="0">
-        <v>21.510000000000002</v>
+        <v>16.34</v>
       </c>
       <c r="D160" s="0">
-        <v>29.859999999999999</v>
+        <v>30.260000000000002</v>
       </c>
       <c r="E160" s="0">
-        <v>2.1762450000000002</v>
+        <v>9.7152600000000007</v>
       </c>
       <c r="F160" s="0">
-        <v>6</v>
+        <v>6.2000000000000002</v>
       </c>
     </row>
     <row r="161">
@@ -3328,19 +3292,19 @@
         <v>2018</v>
       </c>
       <c r="B161" s="0">
-        <v>751.10000000000002</v>
+        <v>225.13</v>
       </c>
       <c r="C161" s="0">
-        <v>19.469999999999999</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="D161" s="0">
-        <v>29.559999999999999</v>
+        <v>30.440000000000001</v>
       </c>
       <c r="E161" s="0">
-        <v>0</v>
+        <v>27.577940000000002</v>
       </c>
       <c r="F161" s="0">
-        <v>8</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="162">
@@ -3348,19 +3312,19 @@
         <v>2018</v>
       </c>
       <c r="B162" s="0">
-        <v>500.25999999999999</v>
+        <v>190.59999999999999</v>
       </c>
       <c r="C162" s="0">
-        <v>9.7200000000000006</v>
+        <v>14.75</v>
       </c>
       <c r="D162" s="0">
-        <v>29.289999999999999</v>
+        <v>30.640000000000001</v>
       </c>
       <c r="E162" s="0">
-        <v>0</v>
+        <v>109.4265</v>
       </c>
       <c r="F162" s="0">
-        <v>14.699999999999999</v>
+        <v>173.40000000000001</v>
       </c>
     </row>
     <row r="163">
@@ -3368,19 +3332,19 @@
         <v>2018</v>
       </c>
       <c r="B163" s="0">
-        <v>316.47000000000003</v>
+        <v>170.72</v>
       </c>
       <c r="C163" s="0">
-        <v>22.34</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="D163" s="0">
-        <v>32.420000000000002</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E163" s="0">
-        <v>0</v>
+        <v>60.436999999999998</v>
       </c>
       <c r="F163" s="0">
-        <v>4</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164">
@@ -3388,19 +3352,19 @@
         <v>2018</v>
       </c>
       <c r="B164" s="0">
-        <v>223.30000000000001</v>
+        <v>117.66</v>
       </c>
       <c r="C164" s="0">
-        <v>14.4</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="D164" s="0">
-        <v>31.210000000000001</v>
+        <v>31.68</v>
       </c>
       <c r="E164" s="0">
-        <v>55.437980000000003</v>
+        <v>165.95859999999999</v>
       </c>
       <c r="F164" s="0">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165">
@@ -3408,19 +3372,19 @@
         <v>2018</v>
       </c>
       <c r="B165" s="0">
-        <v>203.37</v>
+        <v>256.42000000000002</v>
       </c>
       <c r="C165" s="0">
-        <v>19.98</v>
+        <v>6.6399999999999997</v>
       </c>
       <c r="D165" s="0">
-        <v>30.370000000000001</v>
+        <v>31.109999999999999</v>
       </c>
       <c r="E165" s="0">
-        <v>76.648830000000004</v>
+        <v>262.45060000000001</v>
       </c>
       <c r="F165" s="0">
-        <v>131.09999999999999</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="166">
@@ -3428,19 +3392,19 @@
         <v>2018</v>
       </c>
       <c r="B166" s="0">
-        <v>185.77000000000001</v>
+        <v>409.25</v>
       </c>
       <c r="C166" s="0">
-        <v>26.739999999999998</v>
+        <v>13.43</v>
       </c>
       <c r="D166" s="0">
-        <v>29.850000000000001</v>
+        <v>31.359999999999999</v>
       </c>
       <c r="E166" s="0">
-        <v>73.854550000000003</v>
+        <v>0</v>
       </c>
       <c r="F166" s="0">
-        <v>80.900000000000006</v>
+        <v>9.9000000000000004</v>
       </c>
     </row>
     <row r="167">
@@ -3448,19 +3412,19 @@
         <v>2018</v>
       </c>
       <c r="B167" s="0">
-        <v>168.30000000000001</v>
+        <v>372.13</v>
       </c>
       <c r="C167" s="0">
-        <v>22.190000000000001</v>
+        <v>15.94</v>
       </c>
       <c r="D167" s="0">
-        <v>30.170000000000002</v>
+        <v>33</v>
       </c>
       <c r="E167" s="0">
-        <v>138.2987</v>
+        <v>0</v>
       </c>
       <c r="F167" s="0">
-        <v>114.7</v>
+        <v>7.7000000000000002</v>
       </c>
     </row>
     <row r="168">
@@ -3468,19 +3432,19 @@
         <v>2018</v>
       </c>
       <c r="B168" s="0">
-        <v>162.69</v>
+        <v>244.81999999999999</v>
       </c>
       <c r="C168" s="0">
-        <v>13.34</v>
+        <v>25.079999999999998</v>
       </c>
       <c r="D168" s="0">
-        <v>31.449999999999999</v>
+        <v>31.219999999999999</v>
       </c>
       <c r="E168" s="0">
-        <v>190.1902</v>
+        <v>59.209949999999999</v>
       </c>
       <c r="F168" s="0">
-        <v>184.19999999999999</v>
+        <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="169">
@@ -3488,19 +3452,19 @@
         <v>2018</v>
       </c>
       <c r="B169" s="0">
-        <v>150.94999999999999</v>
+        <v>231.84999999999999</v>
       </c>
       <c r="C169" s="0">
-        <v>13.449999999999999</v>
+        <v>26.579999999999998</v>
       </c>
       <c r="D169" s="0">
-        <v>32.18</v>
+        <v>30.5</v>
       </c>
       <c r="E169" s="0">
-        <v>233.23230000000001</v>
+        <v>52.51079</v>
       </c>
       <c r="F169" s="0">
-        <v>187</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="170">
@@ -3508,19 +3472,19 @@
         <v>2018</v>
       </c>
       <c r="B170" s="0">
-        <v>148.93000000000001</v>
+        <v>237.44999999999999</v>
       </c>
       <c r="C170" s="0">
-        <v>14.84</v>
+        <v>11.83</v>
       </c>
       <c r="D170" s="0">
-        <v>31.629999999999999</v>
+        <v>32.189999999999998</v>
       </c>
       <c r="E170" s="0">
-        <v>121.3222</v>
+        <v>18.215</v>
       </c>
       <c r="F170" s="0">
-        <v>177</v>
+        <v>8.5999999999999996</v>
       </c>
     </row>
     <row r="171">
@@ -3528,19 +3492,19 @@
         <v>2018</v>
       </c>
       <c r="B171" s="0">
-        <v>143.91</v>
+        <v>212.91</v>
       </c>
       <c r="C171" s="0">
-        <v>24.640000000000001</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="D171" s="0">
-        <v>31.02</v>
+        <v>30.66</v>
       </c>
       <c r="E171" s="0">
-        <v>158.8135</v>
+        <v>56.09675</v>
       </c>
       <c r="F171" s="0">
-        <v>98.900000000000006</v>
+        <v>147.40000000000001</v>
       </c>
     </row>
     <row r="172">
@@ -3548,19 +3512,19 @@
         <v>2018</v>
       </c>
       <c r="B172" s="0">
-        <v>144.08000000000001</v>
+        <v>168.30000000000001</v>
       </c>
       <c r="C172" s="0">
-        <v>22.969999999999999</v>
+        <v>22.190000000000001</v>
       </c>
       <c r="D172" s="0">
-        <v>30.5</v>
+        <v>30.170000000000002</v>
       </c>
       <c r="E172" s="0">
-        <v>136.18940000000001</v>
+        <v>138.2987</v>
       </c>
       <c r="F172" s="0">
-        <v>111.40000000000001</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="173">
@@ -3568,59 +3532,59 @@
         <v>2018</v>
       </c>
       <c r="B173" s="0">
-        <v>141.22999999999999</v>
+        <v>144.5</v>
       </c>
       <c r="C173" s="0">
-        <v>17.09</v>
+        <v>20.559999999999999</v>
       </c>
       <c r="D173" s="0">
-        <v>30.350000000000001</v>
+        <v>31.09</v>
       </c>
       <c r="E173" s="0">
-        <v>176.5179</v>
+        <v>132.92449999999999</v>
       </c>
       <c r="F173" s="0">
-        <v>158.69999999999999</v>
+        <v>131.59999999999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B174" s="0">
-        <v>138.43000000000001</v>
+        <v>131</v>
       </c>
       <c r="C174" s="0">
-        <v>14.52</v>
+        <v>20.629999999999999</v>
       </c>
       <c r="D174" s="0">
-        <v>30.600000000000001</v>
+        <v>30.210000000000001</v>
       </c>
       <c r="E174" s="0">
-        <v>142.20910000000001</v>
+        <v>58.775799999999997</v>
       </c>
       <c r="F174" s="0">
-        <v>178.30000000000001</v>
+        <v>130.19999999999999</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B175" s="0">
-        <v>136.21000000000001</v>
+        <v>121.87</v>
       </c>
       <c r="C175" s="0">
-        <v>13.550000000000001</v>
+        <v>12.109999999999999</v>
       </c>
       <c r="D175" s="0">
-        <v>30.699999999999999</v>
+        <v>30.870000000000001</v>
       </c>
       <c r="E175" s="0">
-        <v>162.6798</v>
+        <v>168.3929</v>
       </c>
       <c r="F175" s="0">
-        <v>185.09999999999999</v>
+        <v>197.80000000000001</v>
       </c>
     </row>
     <row r="176">
@@ -3628,19 +3592,19 @@
         <v>2019</v>
       </c>
       <c r="B176" s="0">
-        <v>126.40000000000001</v>
+        <v>117.42</v>
       </c>
       <c r="C176" s="0">
-        <v>22.800000000000001</v>
+        <v>21.66</v>
       </c>
       <c r="D176" s="0">
-        <v>30.809999999999999</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="E176" s="0">
-        <v>142.0471</v>
+        <v>139.99629999999999</v>
       </c>
       <c r="F176" s="0">
-        <v>113.8</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="177">
@@ -3648,19 +3612,19 @@
         <v>2019</v>
       </c>
       <c r="B177" s="0">
-        <v>124.98999999999999</v>
+        <v>120.56999999999999</v>
       </c>
       <c r="C177" s="0">
-        <v>26.510000000000002</v>
+        <v>21.719999999999999</v>
       </c>
       <c r="D177" s="0">
-        <v>30.800000000000001</v>
+        <v>31.280000000000001</v>
       </c>
       <c r="E177" s="0">
-        <v>118.1391</v>
+        <v>220.3064</v>
       </c>
       <c r="F177" s="0">
-        <v>85.599999999999994</v>
+        <v>124.3</v>
       </c>
     </row>
     <row r="178">
@@ -3668,19 +3632,19 @@
         <v>2019</v>
       </c>
       <c r="B178" s="0">
-        <v>124.65000000000001</v>
+        <v>176.03999999999999</v>
       </c>
       <c r="C178" s="0">
-        <v>22.280000000000001</v>
+        <v>23.649999999999999</v>
       </c>
       <c r="D178" s="0">
-        <v>31.050000000000001</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="E178" s="0">
-        <v>129.60290000000001</v>
+        <v>53.355550000000001</v>
       </c>
       <c r="F178" s="0">
-        <v>117.90000000000001</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="179">
@@ -3688,19 +3652,19 @@
         <v>2019</v>
       </c>
       <c r="B179" s="0">
-        <v>121.87</v>
+        <v>118.98999999999999</v>
       </c>
       <c r="C179" s="0">
-        <v>12.109999999999999</v>
+        <v>23.940000000000001</v>
       </c>
       <c r="D179" s="0">
-        <v>30.870000000000001</v>
+        <v>30.57</v>
       </c>
       <c r="E179" s="0">
-        <v>168.3929</v>
+        <v>71.476519999999994</v>
       </c>
       <c r="F179" s="0">
-        <v>197.80000000000001</v>
+        <v>105.40000000000001</v>
       </c>
     </row>
     <row r="180">
@@ -3708,19 +3672,19 @@
         <v>2019</v>
       </c>
       <c r="B180" s="0">
-        <v>119.01000000000001</v>
+        <v>103.73</v>
       </c>
       <c r="C180" s="0">
-        <v>11.890000000000001</v>
+        <v>23.829999999999998</v>
       </c>
       <c r="D180" s="0">
-        <v>31.469999999999999</v>
+        <v>30.969999999999999</v>
       </c>
       <c r="E180" s="0">
-        <v>229.47479999999999</v>
+        <v>121.49639999999999</v>
       </c>
       <c r="F180" s="0">
-        <v>199.80000000000001</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="181">
@@ -3728,19 +3692,19 @@
         <v>2019</v>
       </c>
       <c r="B181" s="0">
-        <v>119.17</v>
+        <v>95.340000000000003</v>
       </c>
       <c r="C181" s="0">
-        <v>24.41</v>
+        <v>26.760000000000002</v>
       </c>
       <c r="D181" s="0">
-        <v>33.700000000000003</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="E181" s="0">
-        <v>104.3275</v>
+        <v>141.23339999999999</v>
       </c>
       <c r="F181" s="0">
-        <v>102.59999999999999</v>
+        <v>88.099999999999994</v>
       </c>
     </row>
     <row r="182">
@@ -3748,19 +3712,19 @@
         <v>2019</v>
       </c>
       <c r="B182" s="0">
-        <v>121.89</v>
+        <v>77.879999999999995</v>
       </c>
       <c r="C182" s="0">
-        <v>27.34</v>
+        <v>23.059999999999999</v>
       </c>
       <c r="D182" s="0">
-        <v>32.530000000000001</v>
+        <v>30.629999999999999</v>
       </c>
       <c r="E182" s="0">
-        <v>122.45359999999999</v>
+        <v>162.2167</v>
       </c>
       <c r="F182" s="0">
-        <v>81.299999999999997</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="183">
@@ -3768,19 +3732,19 @@
         <v>2019</v>
       </c>
       <c r="B183" s="0">
-        <v>120.48999999999999</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C183" s="0">
-        <v>28.370000000000001</v>
+        <v>26.899999999999999</v>
       </c>
       <c r="D183" s="0">
-        <v>32.609999999999999</v>
+        <v>30.359999999999999</v>
       </c>
       <c r="E183" s="0">
-        <v>116.04559999999999</v>
+        <v>179.30699999999999</v>
       </c>
       <c r="F183" s="0">
-        <v>74.400000000000006</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="184">
@@ -3788,19 +3752,19 @@
         <v>2019</v>
       </c>
       <c r="B184" s="0">
-        <v>116.95999999999999</v>
+        <v>86.689999999999998</v>
       </c>
       <c r="C184" s="0">
-        <v>23.239999999999998</v>
+        <v>25.920000000000002</v>
       </c>
       <c r="D184" s="0">
-        <v>32.649999999999999</v>
+        <v>30.829999999999998</v>
       </c>
       <c r="E184" s="0">
-        <v>124.4064</v>
+        <v>137.82499999999999</v>
       </c>
       <c r="F184" s="0">
-        <v>112.90000000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="185">
@@ -3808,19 +3772,19 @@
         <v>2019</v>
       </c>
       <c r="B185" s="0">
-        <v>157.47999999999999</v>
+        <v>131.99000000000001</v>
       </c>
       <c r="C185" s="0">
-        <v>17.010000000000002</v>
+        <v>5.5899999999999999</v>
       </c>
       <c r="D185" s="0">
-        <v>31.719999999999999</v>
+        <v>30.960000000000001</v>
       </c>
       <c r="E185" s="0">
-        <v>122.59229999999999</v>
+        <v>344.2174</v>
       </c>
       <c r="F185" s="0">
-        <v>159.69999999999999</v>
+        <v>219.30000000000001</v>
       </c>
     </row>
     <row r="186">
@@ -3828,19 +3792,19 @@
         <v>2019</v>
       </c>
       <c r="B186" s="0">
-        <v>146.09</v>
+        <v>144.11000000000001</v>
       </c>
       <c r="C186" s="0">
-        <v>16.329999999999998</v>
+        <v>28.93</v>
       </c>
       <c r="D186" s="0">
-        <v>31.390000000000001</v>
+        <v>31.030000000000001</v>
       </c>
       <c r="E186" s="0">
-        <v>150.29249999999999</v>
+        <v>78.282610000000005</v>
       </c>
       <c r="F186" s="0">
-        <v>166.09999999999999</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="187">
@@ -3848,19 +3812,19 @@
         <v>2019</v>
       </c>
       <c r="B187" s="0">
-        <v>135.52000000000001</v>
+        <v>143.50999999999999</v>
       </c>
       <c r="C187" s="0">
-        <v>9.1899999999999995</v>
+        <v>27.109999999999999</v>
       </c>
       <c r="D187" s="0">
-        <v>31.600000000000001</v>
+        <v>30.579999999999998</v>
       </c>
       <c r="E187" s="0">
-        <v>245.93299999999999</v>
+        <v>77.063000000000002</v>
       </c>
       <c r="F187" s="0">
-        <v>211.59999999999999</v>
+        <v>81.299999999999997</v>
       </c>
     </row>
     <row r="188">
@@ -3868,19 +3832,19 @@
         <v>2019</v>
       </c>
       <c r="B188" s="0">
-        <v>126.73</v>
+        <v>121.70999999999999</v>
       </c>
       <c r="C188" s="0">
-        <v>26.73</v>
+        <v>29.620000000000001</v>
       </c>
       <c r="D188" s="0">
-        <v>30.920000000000002</v>
+        <v>31.050000000000001</v>
       </c>
       <c r="E188" s="0">
-        <v>80.485510000000005</v>
+        <v>56.953159999999997</v>
       </c>
       <c r="F188" s="0">
-        <v>84.599999999999994</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189">
@@ -3888,19 +3852,19 @@
         <v>2019</v>
       </c>
       <c r="B189" s="0">
-        <v>120.05</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="C189" s="0">
-        <v>31.18</v>
+        <v>17.66</v>
       </c>
       <c r="D189" s="0">
-        <v>30.579999999999998</v>
+        <v>30.550000000000001</v>
       </c>
       <c r="E189" s="0">
-        <v>70.970519999999993</v>
+        <v>111.50360000000001</v>
       </c>
       <c r="F189" s="0">
-        <v>56.5</v>
+        <v>158.69999999999999</v>
       </c>
     </row>
     <row r="190">
@@ -3908,19 +3872,19 @@
         <v>2019</v>
       </c>
       <c r="B190" s="0">
-        <v>106.75</v>
+        <v>143.86000000000001</v>
       </c>
       <c r="C190" s="0">
-        <v>21.640000000000001</v>
+        <v>10.07</v>
       </c>
       <c r="D190" s="0">
-        <v>30.690000000000001</v>
+        <v>30.75</v>
       </c>
       <c r="E190" s="0">
-        <v>96.502589999999998</v>
+        <v>151.36660000000001</v>
       </c>
       <c r="F190" s="0">
-        <v>125.40000000000001</v>
+        <v>205.5</v>
       </c>
     </row>
     <row r="191">
@@ -3928,19 +3892,19 @@
         <v>2019</v>
       </c>
       <c r="B191" s="0">
-        <v>107.04000000000001</v>
+        <v>348.45999999999998</v>
       </c>
       <c r="C191" s="0">
-        <v>24.629999999999999</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="D191" s="0">
-        <v>31.140000000000001</v>
+        <v>32.07</v>
       </c>
       <c r="E191" s="0">
-        <v>97.833539999999999</v>
+        <v>0</v>
       </c>
       <c r="F191" s="0">
-        <v>101.40000000000001</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="192">
@@ -3948,19 +3912,19 @@
         <v>2019</v>
       </c>
       <c r="B192" s="0">
-        <v>103.73</v>
+        <v>291.00999999999999</v>
       </c>
       <c r="C192" s="0">
-        <v>23.829999999999998</v>
+        <v>23</v>
       </c>
       <c r="D192" s="0">
-        <v>30.969999999999999</v>
+        <v>30.93</v>
       </c>
       <c r="E192" s="0">
-        <v>121.49639999999999</v>
+        <v>2.9387699999999999</v>
       </c>
       <c r="F192" s="0">
-        <v>107.7</v>
+        <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="193">
@@ -3968,19 +3932,19 @@
         <v>2019</v>
       </c>
       <c r="B193" s="0">
-        <v>103.06999999999999</v>
+        <v>193.47999999999999</v>
       </c>
       <c r="C193" s="0">
-        <v>21.039999999999999</v>
+        <v>24.170000000000002</v>
       </c>
       <c r="D193" s="0">
-        <v>31.829999999999998</v>
+        <v>31.489999999999998</v>
       </c>
       <c r="E193" s="0">
-        <v>125.2139</v>
+        <v>0</v>
       </c>
       <c r="F193" s="0">
-        <v>130.90000000000001</v>
+        <v>99.099999999999994</v>
       </c>
     </row>
     <row r="194">
@@ -3988,19 +3952,19 @@
         <v>2019</v>
       </c>
       <c r="B194" s="0">
-        <v>100.95999999999999</v>
+        <v>276.74000000000001</v>
       </c>
       <c r="C194" s="0">
-        <v>10.93</v>
+        <v>14.109999999999999</v>
       </c>
       <c r="D194" s="0">
-        <v>31.300000000000001</v>
+        <v>30.510000000000002</v>
       </c>
       <c r="E194" s="0">
-        <v>233.83670000000001</v>
+        <v>57.252989999999997</v>
       </c>
       <c r="F194" s="0">
-        <v>208.40000000000001</v>
+        <v>7.7000000000000002</v>
       </c>
     </row>
     <row r="195">
@@ -4008,19 +3972,19 @@
         <v>2019</v>
       </c>
       <c r="B195" s="0">
-        <v>95.340000000000003</v>
+        <v>228.21000000000001</v>
       </c>
       <c r="C195" s="0">
-        <v>26.760000000000002</v>
+        <v>11.789999999999999</v>
       </c>
       <c r="D195" s="0">
-        <v>32.520000000000003</v>
+        <v>30.280000000000001</v>
       </c>
       <c r="E195" s="0">
-        <v>141.23339999999999</v>
+        <v>31.810390000000002</v>
       </c>
       <c r="F195" s="0">
-        <v>88.099999999999994</v>
+        <v>8.4000000000000004</v>
       </c>
     </row>
     <row r="196">
@@ -4028,19 +3992,19 @@
         <v>2019</v>
       </c>
       <c r="B196" s="0">
-        <v>78.969999999999999</v>
+        <v>181.12</v>
       </c>
       <c r="C196" s="0">
-        <v>22.579999999999998</v>
+        <v>25.48</v>
       </c>
       <c r="D196" s="0">
-        <v>30.879999999999999</v>
+        <v>30.440000000000001</v>
       </c>
       <c r="E196" s="0">
-        <v>159.18719999999999</v>
+        <v>63.22869</v>
       </c>
       <c r="F196" s="0">
-        <v>122.8</v>
+        <v>90.200000000000003</v>
       </c>
     </row>
     <row r="197">
@@ -4048,19 +4012,19 @@
         <v>2019</v>
       </c>
       <c r="B197" s="0">
-        <v>144.03</v>
+        <v>232.59999999999999</v>
       </c>
       <c r="C197" s="0">
-        <v>14.19</v>
+        <v>20.920000000000002</v>
       </c>
       <c r="D197" s="0">
-        <v>31.600000000000001</v>
+        <v>30.199999999999999</v>
       </c>
       <c r="E197" s="0">
-        <v>144.93369999999999</v>
+        <v>106.4007</v>
       </c>
       <c r="F197" s="0">
-        <v>181</v>
+        <v>3.8999999999999999</v>
       </c>
     </row>
     <row r="198">
@@ -4068,19 +4032,19 @@
         <v>2019</v>
       </c>
       <c r="B198" s="0">
-        <v>143.86000000000001</v>
+        <v>267.38999999999999</v>
       </c>
       <c r="C198" s="0">
-        <v>10.07</v>
+        <v>19.050000000000001</v>
       </c>
       <c r="D198" s="0">
-        <v>30.75</v>
+        <v>30.559999999999999</v>
       </c>
       <c r="E198" s="0">
-        <v>151.36660000000001</v>
+        <v>50.400950000000002</v>
       </c>
       <c r="F198" s="0">
-        <v>205.5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="199">
@@ -4088,19 +4052,19 @@
         <v>2019</v>
       </c>
       <c r="B199" s="0">
-        <v>344.17000000000002</v>
+        <v>259.47000000000003</v>
       </c>
       <c r="C199" s="0">
-        <v>14.359999999999999</v>
+        <v>13.869999999999999</v>
       </c>
       <c r="D199" s="0">
-        <v>31.66</v>
+        <v>30.579999999999998</v>
       </c>
       <c r="E199" s="0">
-        <v>0</v>
+        <v>19.018540000000002</v>
       </c>
       <c r="F199" s="0">
-        <v>8.4000000000000004</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="200">
@@ -4108,19 +4072,19 @@
         <v>2019</v>
       </c>
       <c r="B200" s="0">
-        <v>348.45999999999998</v>
+        <v>214.31999999999999</v>
       </c>
       <c r="C200" s="0">
-        <v>17.510000000000002</v>
+        <v>12.92</v>
       </c>
       <c r="D200" s="0">
-        <v>32.07</v>
+        <v>30.010000000000002</v>
       </c>
       <c r="E200" s="0">
-        <v>0</v>
+        <v>85.009200000000007</v>
       </c>
       <c r="F200" s="0">
-        <v>6.5</v>
+        <v>7.4000000000000004</v>
       </c>
     </row>
     <row r="201">
@@ -4128,19 +4092,19 @@
         <v>2019</v>
       </c>
       <c r="B201" s="0">
-        <v>327.58999999999997</v>
+        <v>280.38</v>
       </c>
       <c r="C201" s="0">
-        <v>20.649999999999999</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="D201" s="0">
-        <v>31.510000000000002</v>
+        <v>30.579999999999998</v>
       </c>
       <c r="E201" s="0">
         <v>0</v>
       </c>
       <c r="F201" s="0">
-        <v>4.7999999999999998</v>
+        <v>6.4000000000000004</v>
       </c>
     </row>
     <row r="202">
@@ -4148,19 +4112,19 @@
         <v>2019</v>
       </c>
       <c r="B202" s="0">
-        <v>205.56</v>
+        <v>346.94999999999999</v>
       </c>
       <c r="C202" s="0">
-        <v>25.309999999999999</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="D202" s="0">
-        <v>31.039999999999999</v>
+        <v>30.43</v>
       </c>
       <c r="E202" s="0">
-        <v>77.833200000000005</v>
+        <v>0</v>
       </c>
       <c r="F202" s="0">
-        <v>2.3999999999999999</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="203">
@@ -4168,19 +4132,19 @@
         <v>2019</v>
       </c>
       <c r="B203" s="0">
-        <v>276.74000000000001</v>
+        <v>293.31</v>
       </c>
       <c r="C203" s="0">
-        <v>14.109999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="D203" s="0">
-        <v>30.510000000000002</v>
+        <v>30.18</v>
       </c>
       <c r="E203" s="0">
-        <v>57.252989999999997</v>
+        <v>0</v>
       </c>
       <c r="F203" s="0">
-        <v>7.7000000000000002</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="204">
@@ -4188,19 +4152,19 @@
         <v>2019</v>
       </c>
       <c r="B204" s="0">
-        <v>213.41</v>
+        <v>244.06999999999999</v>
       </c>
       <c r="C204" s="0">
-        <v>24.82</v>
+        <v>22.120000000000001</v>
       </c>
       <c r="D204" s="0">
-        <v>31.399999999999999</v>
+        <v>30.059999999999999</v>
       </c>
       <c r="E204" s="0">
-        <v>45.992820000000002</v>
+        <v>3.0353089999999998</v>
       </c>
       <c r="F204" s="0">
-        <v>2.6000000000000001</v>
+        <v>3.6000000000000001</v>
       </c>
     </row>
     <row r="205">
@@ -4208,19 +4172,19 @@
         <v>2019</v>
       </c>
       <c r="B205" s="0">
-        <v>214.31999999999999</v>
+        <v>178.63</v>
       </c>
       <c r="C205" s="0">
-        <v>12.92</v>
+        <v>15.779999999999999</v>
       </c>
       <c r="D205" s="0">
-        <v>30.010000000000002</v>
+        <v>29.649999999999999</v>
       </c>
       <c r="E205" s="0">
-        <v>85.009200000000007</v>
+        <v>134.47900000000001</v>
       </c>
       <c r="F205" s="0">
-        <v>7.4000000000000004</v>
+        <v>164.59999999999999</v>
       </c>
     </row>
     <row r="206">
@@ -4228,19 +4192,19 @@
         <v>2019</v>
       </c>
       <c r="B206" s="0">
-        <v>327.83999999999997</v>
+        <v>201.24000000000001</v>
       </c>
       <c r="C206" s="0">
-        <v>19.91</v>
+        <v>22.23</v>
       </c>
       <c r="D206" s="0">
-        <v>31.260000000000002</v>
+        <v>30.359999999999999</v>
       </c>
       <c r="E206" s="0">
-        <v>0</v>
+        <v>68.133399999999995</v>
       </c>
       <c r="F206" s="0">
-        <v>5.0999999999999996</v>
+        <v>3.2000000000000002</v>
       </c>
     </row>
     <row r="207">
@@ -4248,19 +4212,19 @@
         <v>2019</v>
       </c>
       <c r="B207" s="0">
-        <v>211.12</v>
+        <v>134.84999999999999</v>
       </c>
       <c r="C207" s="0">
-        <v>23.98</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="D207" s="0">
-        <v>29.690000000000001</v>
+        <v>30.440000000000001</v>
       </c>
       <c r="E207" s="0">
-        <v>49.511879999999998</v>
+        <v>135.4769</v>
       </c>
       <c r="F207" s="0">
-        <v>2.7999999999999998</v>
+        <v>164.40000000000001</v>
       </c>
     </row>
     <row r="208">
@@ -4268,19 +4232,19 @@
         <v>2019</v>
       </c>
       <c r="B208" s="0">
-        <v>189.71000000000001</v>
+        <v>99.329999999999998</v>
       </c>
       <c r="C208" s="0">
-        <v>22.719999999999999</v>
+        <v>19.530000000000001</v>
       </c>
       <c r="D208" s="0">
-        <v>29.48</v>
+        <v>29.649999999999999</v>
       </c>
       <c r="E208" s="0">
-        <v>70.294899999999998</v>
+        <v>106.41889999999999</v>
       </c>
       <c r="F208" s="0">
-        <v>110.3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209">
@@ -4288,19 +4252,19 @@
         <v>2019</v>
       </c>
       <c r="B209" s="0">
-        <v>239.62</v>
+        <v>107.27</v>
       </c>
       <c r="C209" s="0">
-        <v>22.640000000000001</v>
+        <v>21.140000000000001</v>
       </c>
       <c r="D209" s="0">
-        <v>29.75</v>
+        <v>30.190000000000001</v>
       </c>
       <c r="E209" s="0">
-        <v>54.647289999999998</v>
+        <v>135.631</v>
       </c>
       <c r="F209" s="0">
-        <v>3.2999999999999998</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="210">
@@ -4308,19 +4272,19 @@
         <v>2019</v>
       </c>
       <c r="B210" s="0">
-        <v>216.38999999999999</v>
+        <v>93.180000000000007</v>
       </c>
       <c r="C210" s="0">
-        <v>23.75</v>
+        <v>14.789999999999999</v>
       </c>
       <c r="D210" s="0">
-        <v>30.670000000000002</v>
+        <v>31.140000000000001</v>
       </c>
       <c r="E210" s="0">
-        <v>21.69679</v>
+        <v>136.2972</v>
       </c>
       <c r="F210" s="0">
-        <v>2.8999999999999999</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211">
@@ -4328,19 +4292,19 @@
         <v>2019</v>
       </c>
       <c r="B211" s="0">
-        <v>148.63</v>
+        <v>91.439999999999998</v>
       </c>
       <c r="C211" s="0">
-        <v>11.25</v>
+        <v>12.9</v>
       </c>
       <c r="D211" s="0">
-        <v>29.890000000000001</v>
+        <v>31.41</v>
       </c>
       <c r="E211" s="0">
-        <v>140.97200000000001</v>
+        <v>158.3186</v>
       </c>
       <c r="F211" s="0">
-        <v>199.09999999999999</v>
+        <v>200.69999999999999</v>
       </c>
     </row>
     <row r="212">
@@ -4348,19 +4312,19 @@
         <v>2019</v>
       </c>
       <c r="B212" s="0">
-        <v>103.11</v>
+        <v>86.810000000000002</v>
       </c>
       <c r="C212" s="0">
-        <v>18.670000000000002</v>
+        <v>17.030000000000001</v>
       </c>
       <c r="D212" s="0">
-        <v>29.73</v>
+        <v>30.489999999999998</v>
       </c>
       <c r="E212" s="0">
-        <v>149.5256</v>
+        <v>202.15989999999999</v>
       </c>
       <c r="F212" s="0">
-        <v>151.80000000000001</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="213">
@@ -4368,19 +4332,19 @@
         <v>2019</v>
       </c>
       <c r="B213" s="0">
-        <v>103.67</v>
+        <v>79.75</v>
       </c>
       <c r="C213" s="0">
-        <v>22.039999999999999</v>
+        <v>23.300000000000001</v>
       </c>
       <c r="D213" s="0">
-        <v>29.77</v>
+        <v>30.629999999999999</v>
       </c>
       <c r="E213" s="0">
-        <v>140.06630000000001</v>
+        <v>102.4635</v>
       </c>
       <c r="F213" s="0">
-        <v>123.2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="214">
@@ -4388,19 +4352,19 @@
         <v>2019</v>
       </c>
       <c r="B214" s="0">
-        <v>107.27</v>
+        <v>85.260000000000005</v>
       </c>
       <c r="C214" s="0">
-        <v>21.140000000000001</v>
+        <v>21.859999999999999</v>
       </c>
       <c r="D214" s="0">
-        <v>30.190000000000001</v>
+        <v>31.379999999999999</v>
       </c>
       <c r="E214" s="0">
-        <v>135.631</v>
+        <v>94.848240000000004</v>
       </c>
       <c r="F214" s="0">
-        <v>130.5</v>
+        <v>128.69999999999999</v>
       </c>
     </row>
     <row r="215">
@@ -4408,19 +4372,19 @@
         <v>2019</v>
       </c>
       <c r="B215" s="0">
-        <v>93.180000000000007</v>
+        <v>110.14</v>
       </c>
       <c r="C215" s="0">
-        <v>14.789999999999999</v>
+        <v>16.68</v>
       </c>
       <c r="D215" s="0">
-        <v>31.140000000000001</v>
+        <v>30.850000000000001</v>
       </c>
       <c r="E215" s="0">
-        <v>136.2972</v>
+        <v>160.04480000000001</v>
       </c>
       <c r="F215" s="0">
-        <v>186</v>
+        <v>168.5</v>
       </c>
     </row>
     <row r="216">
@@ -4428,19 +4392,19 @@
         <v>2019</v>
       </c>
       <c r="B216" s="0">
-        <v>85.260000000000005</v>
+        <v>97.680000000000007</v>
       </c>
       <c r="C216" s="0">
-        <v>21.859999999999999</v>
+        <v>13.67</v>
       </c>
       <c r="D216" s="0">
-        <v>31.379999999999999</v>
+        <v>31.170000000000002</v>
       </c>
       <c r="E216" s="0">
-        <v>94.848240000000004</v>
+        <v>141.99719999999999</v>
       </c>
       <c r="F216" s="0">
-        <v>128.69999999999999</v>
+        <v>193.90000000000001</v>
       </c>
     </row>
     <row r="217">
@@ -4448,19 +4412,19 @@
         <v>2019</v>
       </c>
       <c r="B217" s="0">
-        <v>98.030000000000001</v>
+        <v>80.310000000000002</v>
       </c>
       <c r="C217" s="0">
-        <v>23.25</v>
+        <v>10.85</v>
       </c>
       <c r="D217" s="0">
-        <v>31.16</v>
+        <v>31.190000000000001</v>
       </c>
       <c r="E217" s="0">
-        <v>173.10120000000001</v>
+        <v>198.05609999999999</v>
       </c>
       <c r="F217" s="0">
-        <v>115.2</v>
+        <v>216.09999999999999</v>
       </c>
     </row>
     <row r="218">
@@ -4468,19 +4432,19 @@
         <v>2019</v>
       </c>
       <c r="B218" s="0">
-        <v>94.109999999999999</v>
+        <v>100.90000000000001</v>
       </c>
       <c r="C218" s="0">
-        <v>15.01</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="D218" s="0">
-        <v>31.41</v>
+        <v>32.039999999999999</v>
       </c>
       <c r="E218" s="0">
-        <v>230.01589999999999</v>
+        <v>211.73439999999999</v>
       </c>
       <c r="F218" s="0">
-        <v>185.40000000000001</v>
+        <v>141</v>
       </c>
     </row>
     <row r="219">
@@ -4488,19 +4452,19 @@
         <v>2019</v>
       </c>
       <c r="B219" s="0">
-        <v>91.680000000000007</v>
+        <v>88.540000000000006</v>
       </c>
       <c r="C219" s="0">
-        <v>22.370000000000001</v>
+        <v>23.420000000000002</v>
       </c>
       <c r="D219" s="0">
-        <v>31.760000000000002</v>
+        <v>31.870000000000001</v>
       </c>
       <c r="E219" s="0">
-        <v>123.8879</v>
+        <v>145.23339999999999</v>
       </c>
       <c r="F219" s="0">
-        <v>124.2</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="220">
@@ -4508,19 +4472,19 @@
         <v>2019</v>
       </c>
       <c r="B220" s="0">
-        <v>86.200000000000003</v>
+        <v>89.510000000000005</v>
       </c>
       <c r="C220" s="0">
-        <v>17.870000000000001</v>
+        <v>21.920000000000002</v>
       </c>
       <c r="D220" s="0">
-        <v>31.719999999999999</v>
+        <v>31.640000000000001</v>
       </c>
       <c r="E220" s="0">
-        <v>124.7503</v>
+        <v>150.41390000000001</v>
       </c>
       <c r="F220" s="0">
-        <v>164.09999999999999</v>
+        <v>128</v>
       </c>
     </row>
     <row r="221">
@@ -4528,19 +4492,19 @@
         <v>2019</v>
       </c>
       <c r="B221" s="0">
-        <v>83.5</v>
+        <v>91.420000000000002</v>
       </c>
       <c r="C221" s="0">
-        <v>15.369999999999999</v>
+        <v>21.27</v>
       </c>
       <c r="D221" s="0">
-        <v>31.75</v>
+        <v>31.350000000000001</v>
       </c>
       <c r="E221" s="0">
-        <v>163.9222</v>
+        <v>141.92830000000001</v>
       </c>
       <c r="F221" s="0">
-        <v>185.69999999999999</v>
+        <v>133.09999999999999</v>
       </c>
     </row>
     <row r="222">
@@ -4548,19 +4512,19 @@
         <v>2019</v>
       </c>
       <c r="B222" s="0">
-        <v>82.5</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="C222" s="0">
-        <v>5.1299999999999999</v>
+        <v>12.6</v>
       </c>
       <c r="D222" s="0">
-        <v>32.140000000000001</v>
+        <v>31.399999999999999</v>
       </c>
       <c r="E222" s="0">
-        <v>259.40449999999998</v>
+        <v>167.47309999999999</v>
       </c>
       <c r="F222" s="0">
-        <v>235.59999999999999</v>
+        <v>206.59999999999999</v>
       </c>
     </row>
     <row r="223">
@@ -4568,19 +4532,19 @@
         <v>2019</v>
       </c>
       <c r="B223" s="0">
-        <v>90.200000000000003</v>
+        <v>80.209999999999994</v>
       </c>
       <c r="C223" s="0">
-        <v>6.6500000000000004</v>
+        <v>25.690000000000001</v>
       </c>
       <c r="D223" s="0">
-        <v>32.109999999999999</v>
+        <v>31.719999999999999</v>
       </c>
       <c r="E223" s="0">
-        <v>226.654</v>
+        <v>60.81644</v>
       </c>
       <c r="F223" s="0">
-        <v>232.80000000000001</v>
+        <v>97.900000000000006</v>
       </c>
     </row>
     <row r="224">
@@ -4588,19 +4552,19 @@
         <v>2019</v>
       </c>
       <c r="B224" s="0">
-        <v>124.09999999999999</v>
+        <v>90.200000000000003</v>
       </c>
       <c r="C224" s="0">
-        <v>8.6400000000000006</v>
+        <v>6.6500000000000004</v>
       </c>
       <c r="D224" s="0">
-        <v>32.979999999999997</v>
+        <v>32.109999999999999</v>
       </c>
       <c r="E224" s="0">
-        <v>279.9606</v>
+        <v>226.654</v>
       </c>
       <c r="F224" s="0">
-        <v>220.09999999999999</v>
+        <v>232.80000000000001</v>
       </c>
     </row>
     <row r="225">
@@ -4608,19 +4572,19 @@
         <v>2019</v>
       </c>
       <c r="B225" s="0">
-        <v>136.86000000000001</v>
+        <v>152.74000000000001</v>
       </c>
       <c r="C225" s="0">
-        <v>5.04</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="D225" s="0">
-        <v>33.149999999999999</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="E225" s="0">
-        <v>359.57999999999998</v>
+        <v>61.922040000000003</v>
       </c>
       <c r="F225" s="0">
-        <v>223.69999999999999</v>
+        <v>74.900000000000006</v>
       </c>
     </row>
     <row r="226">
@@ -4628,19 +4592,19 @@
         <v>2019</v>
       </c>
       <c r="B226" s="0">
-        <v>127.86</v>
+        <v>132.56999999999999</v>
       </c>
       <c r="C226" s="0">
-        <v>31.079999999999998</v>
+        <v>22.489999999999998</v>
       </c>
       <c r="D226" s="0">
-        <v>31.260000000000002</v>
+        <v>31.48</v>
       </c>
       <c r="E226" s="0">
-        <v>98.627350000000007</v>
+        <v>104.6151</v>
       </c>
       <c r="F226" s="0">
-        <v>57.700000000000003</v>
+        <v>118.40000000000001</v>
       </c>
     </row>
     <row r="227">
@@ -4648,19 +4612,19 @@
         <v>2019</v>
       </c>
       <c r="B227" s="0">
-        <v>118.91</v>
+        <v>130.16</v>
       </c>
       <c r="C227" s="0">
-        <v>28.609999999999999</v>
+        <v>11.779999999999999</v>
       </c>
       <c r="D227" s="0">
-        <v>31.890000000000001</v>
+        <v>32.789999999999999</v>
       </c>
       <c r="E227" s="0">
-        <v>131.2175</v>
+        <v>95.357190000000003</v>
       </c>
       <c r="F227" s="0">
-        <v>72.900000000000006</v>
+        <v>203.09999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -4668,19 +4632,19 @@
         <v>2019</v>
       </c>
       <c r="B228" s="0">
-        <v>115.68000000000001</v>
+        <v>127.81999999999999</v>
       </c>
       <c r="C228" s="0">
-        <v>19.640000000000001</v>
+        <v>28.120000000000001</v>
       </c>
       <c r="D228" s="0">
-        <v>32.07</v>
+        <v>31.73</v>
       </c>
       <c r="E228" s="0">
-        <v>167.16370000000001</v>
+        <v>91.235889999999998</v>
       </c>
       <c r="F228" s="0">
-        <v>142.40000000000001</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="229">
@@ -4688,19 +4652,19 @@
         <v>2019</v>
       </c>
       <c r="B229" s="0">
-        <v>117.34999999999999</v>
+        <v>114.77</v>
       </c>
       <c r="C229" s="0">
-        <v>24.379999999999999</v>
+        <v>6.5499999999999998</v>
       </c>
       <c r="D229" s="0">
-        <v>31.34</v>
+        <v>32.329999999999998</v>
       </c>
       <c r="E229" s="0">
-        <v>121.6092</v>
+        <v>410.2484</v>
       </c>
       <c r="F229" s="0">
-        <v>104.2</v>
+        <v>226.5</v>
       </c>
     </row>
     <row r="230">
@@ -4708,19 +4672,19 @@
         <v>2019</v>
       </c>
       <c r="B230" s="0">
-        <v>103.01000000000001</v>
+        <v>112.02</v>
       </c>
       <c r="C230" s="0">
-        <v>20.489999999999998</v>
+        <v>14.69</v>
       </c>
       <c r="D230" s="0">
-        <v>30.68</v>
+        <v>31.940000000000001</v>
       </c>
       <c r="E230" s="0">
-        <v>122.8503</v>
+        <v>130.0763</v>
       </c>
       <c r="F230" s="0">
-        <v>136.90000000000001</v>
+        <v>185.69999999999999</v>
       </c>
     </row>
     <row r="231">
@@ -4728,19 +4692,19 @@
         <v>2019</v>
       </c>
       <c r="B231" s="0">
-        <v>150</v>
+        <v>118.37</v>
       </c>
       <c r="C231" s="0">
-        <v>8.8599999999999994</v>
+        <v>21.879999999999999</v>
       </c>
       <c r="D231" s="0">
-        <v>30.870000000000001</v>
+        <v>31.370000000000001</v>
       </c>
       <c r="E231" s="0">
-        <v>277.8424</v>
+        <v>138.8143</v>
       </c>
       <c r="F231" s="0">
-        <v>210.5</v>
+        <v>124.7</v>
       </c>
     </row>
     <row r="232">
@@ -4748,19 +4712,19 @@
         <v>2019</v>
       </c>
       <c r="B232" s="0">
-        <v>171.36000000000001</v>
+        <v>111.16</v>
       </c>
       <c r="C232" s="0">
-        <v>13.42</v>
+        <v>28.32</v>
       </c>
       <c r="D232" s="0">
-        <v>30.710000000000001</v>
+        <v>31.260000000000002</v>
       </c>
       <c r="E232" s="0">
-        <v>202.87819999999999</v>
+        <v>91.449460000000002</v>
       </c>
       <c r="F232" s="0">
-        <v>183.5</v>
+        <v>75.700000000000003</v>
       </c>
     </row>
     <row r="233">
@@ -4768,19 +4732,19 @@
         <v>2019</v>
       </c>
       <c r="B233" s="0">
-        <v>489.24000000000001</v>
+        <v>103.01000000000001</v>
       </c>
       <c r="C233" s="0">
-        <v>29.350000000000001</v>
+        <v>20.489999999999998</v>
       </c>
       <c r="D233" s="0">
-        <v>30.280000000000001</v>
+        <v>30.68</v>
       </c>
       <c r="E233" s="0">
-        <v>0</v>
+        <v>122.8503</v>
       </c>
       <c r="F233" s="0">
-        <v>2.3999999999999999</v>
+        <v>136.90000000000001</v>
       </c>
     </row>
     <row r="234">
@@ -4788,19 +4752,19 @@
         <v>2019</v>
       </c>
       <c r="B234" s="0">
-        <v>251.69</v>
+        <v>185.19999999999999</v>
       </c>
       <c r="C234" s="0">
-        <v>7.79</v>
+        <v>7.2199999999999998</v>
       </c>
       <c r="D234" s="0">
-        <v>30.59</v>
+        <v>31.120000000000001</v>
       </c>
       <c r="E234" s="0">
-        <v>82.936700000000002</v>
+        <v>396.14710000000002</v>
       </c>
       <c r="F234" s="0">
-        <v>12.5</v>
+        <v>210.90000000000001</v>
       </c>
     </row>
     <row r="235">
@@ -4808,19 +4772,19 @@
         <v>2019</v>
       </c>
       <c r="B235" s="0">
-        <v>321.05000000000001</v>
+        <v>489.24000000000001</v>
       </c>
       <c r="C235" s="0">
-        <v>16.68</v>
+        <v>29.350000000000001</v>
       </c>
       <c r="D235" s="0">
-        <v>32.549999999999997</v>
+        <v>30.280000000000001</v>
       </c>
       <c r="E235" s="0">
-        <v>7.727112</v>
+        <v>0</v>
       </c>
       <c r="F235" s="0">
-        <v>6.7999999999999998</v>
+        <v>2.3999999999999999</v>
       </c>
     </row>
     <row r="236">
@@ -4828,19 +4792,19 @@
         <v>2019</v>
       </c>
       <c r="B236" s="0">
-        <v>293.94</v>
+        <v>321.05000000000001</v>
       </c>
       <c r="C236" s="0">
-        <v>23.23</v>
+        <v>16.68</v>
       </c>
       <c r="D236" s="0">
-        <v>32.420000000000002</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="E236" s="0">
-        <v>48.497129999999999</v>
+        <v>7.727112</v>
       </c>
       <c r="F236" s="0">
-        <v>3.6000000000000001</v>
+        <v>6.7999999999999998</v>
       </c>
     </row>
     <row r="237">
@@ -4848,19 +4812,19 @@
         <v>2019</v>
       </c>
       <c r="B237" s="0">
-        <v>568.04999999999995</v>
+        <v>285.11000000000001</v>
       </c>
       <c r="C237" s="0">
-        <v>12.32</v>
+        <v>13.34</v>
       </c>
       <c r="D237" s="0">
-        <v>32.789999999999999</v>
+        <v>30.899999999999999</v>
       </c>
       <c r="E237" s="0">
-        <v>66.671449999999993</v>
+        <v>0</v>
       </c>
       <c r="F237" s="0">
-        <v>12.9</v>
+        <v>8.4000000000000004</v>
       </c>
     </row>
     <row r="238">
@@ -4868,19 +4832,19 @@
         <v>2019</v>
       </c>
       <c r="B238" s="0">
-        <v>366.44999999999999</v>
+        <v>623.83000000000004</v>
       </c>
       <c r="C238" s="0">
-        <v>20.02</v>
+        <v>21.109999999999999</v>
       </c>
       <c r="D238" s="0">
-        <v>30.640000000000001</v>
+        <v>30.359999999999999</v>
       </c>
       <c r="E238" s="0">
-        <v>0</v>
+        <v>70.851740000000007</v>
       </c>
       <c r="F238" s="0">
-        <v>5.4000000000000004</v>
+        <v>6.2999999999999998</v>
       </c>
     </row>
     <row r="239">
@@ -4888,19 +4852,19 @@
         <v>2019</v>
       </c>
       <c r="B239" s="0">
-        <v>336.38</v>
+        <v>1041.53</v>
       </c>
       <c r="C239" s="0">
-        <v>21.57</v>
+        <v>25.199999999999999</v>
       </c>
       <c r="D239" s="0">
-        <v>30.460000000000001</v>
+        <v>30.559999999999999</v>
       </c>
       <c r="E239" s="0">
         <v>0</v>
       </c>
       <c r="F239" s="0">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="240">
@@ -4908,19 +4872,19 @@
         <v>2019</v>
       </c>
       <c r="B240" s="0">
-        <v>313.92000000000002</v>
+        <v>366.44999999999999</v>
       </c>
       <c r="C240" s="0">
-        <v>24.5</v>
+        <v>20.02</v>
       </c>
       <c r="D240" s="0">
-        <v>31.379999999999999</v>
+        <v>30.640000000000001</v>
       </c>
       <c r="E240" s="0">
         <v>0</v>
       </c>
       <c r="F240" s="0">
-        <v>3.2999999999999998</v>
+        <v>5.4000000000000004</v>
       </c>
     </row>
     <row r="241">
@@ -4928,19 +4892,19 @@
         <v>2019</v>
       </c>
       <c r="B241" s="0">
-        <v>260.18000000000001</v>
+        <v>293.91000000000003</v>
       </c>
       <c r="C241" s="0">
-        <v>20.32</v>
+        <v>23.050000000000001</v>
       </c>
       <c r="D241" s="0">
-        <v>31.890000000000001</v>
+        <v>32.539999999999999</v>
       </c>
       <c r="E241" s="0">
-        <v>88.813900000000004</v>
+        <v>0</v>
       </c>
       <c r="F241" s="0">
-        <v>4.4000000000000004</v>
+        <v>3.7000000000000002</v>
       </c>
     </row>
   </sheetData>
